--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_18_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2536318.719184141</v>
+        <v>-2537067.120695061</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4354305.171692329</v>
+        <v>4354305.171692328</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260.8850331288905</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>239.8776541311002</v>
       </c>
       <c r="E11" t="n">
         <v>261.6197917010057</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>280.7916077889829</v>
       </c>
       <c r="G11" t="n">
         <v>282.1305160374088</v>
@@ -1388,7 +1388,7 @@
         <v>194.1880049094286</v>
       </c>
       <c r="I11" t="n">
-        <v>18.9569054414008</v>
+        <v>18.95690544140077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.59464412049036</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>77.85152350719417</v>
+        <v>90.29547644886772</v>
       </c>
       <c r="U11" t="n">
-        <v>123.0708631572777</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>153.8256914208743</v>
       </c>
       <c r="W11" t="n">
         <v>229.6915098470265</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>260.3883658759719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>30.86856503750639</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>8.232179645741581</v>
       </c>
       <c r="E12" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>4.128789075675968</v>
+        <v>4.12878907567594</v>
       </c>
       <c r="G12" t="n">
         <v>127.1232045289026</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I12" t="n">
-        <v>56.74941852193287</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>96.75641571757208</v>
+        <v>145.364587523205</v>
       </c>
       <c r="T12" t="n">
-        <v>56.29837653087534</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U12" t="n">
-        <v>87.07085174372149</v>
+        <v>216.2889227376699</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>138.3857455961223</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>61.37804209296851</v>
+        <v>61.37804209296849</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.50174400358759</v>
+        <v>52.50174400358756</v>
       </c>
       <c r="C13" t="n">
-        <v>38.70173884898807</v>
+        <v>38.70173884898804</v>
       </c>
       <c r="D13" t="n">
-        <v>22.32310324656646</v>
+        <v>22.32310324656643</v>
       </c>
       <c r="E13" t="n">
-        <v>21.27085310234591</v>
+        <v>21.27085310234588</v>
       </c>
       <c r="F13" t="n">
-        <v>21.73777743053222</v>
+        <v>21.73777743053219</v>
       </c>
       <c r="G13" t="n">
-        <v>37.74587087490185</v>
+        <v>37.74587087490183</v>
       </c>
       <c r="H13" t="n">
-        <v>26.19044893016427</v>
+        <v>26.19044893016424</v>
       </c>
       <c r="I13" t="n">
-        <v>5.525274884455319</v>
+        <v>5.525274884455291</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.820769996597214</v>
+        <v>6.820769996597186</v>
       </c>
       <c r="S13" t="n">
-        <v>77.70832139488074</v>
+        <v>77.70832139488071</v>
       </c>
       <c r="T13" t="n">
-        <v>100.4899439296227</v>
+        <v>100.4899439296226</v>
       </c>
       <c r="U13" t="n">
         <v>155.0857237976439</v>
@@ -1591,10 +1591,10 @@
         <v>154.0767664738264</v>
       </c>
       <c r="X13" t="n">
-        <v>99.72186846962956</v>
+        <v>99.72186846962953</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.59673622569724</v>
+        <v>90.59673622569721</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>260.8850331288905</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>248.8963500865723</v>
+        <v>248.8963500865722</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>239.8776541311002</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>124.6733245475214</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2794886727606626</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>282.1305160374088</v>
       </c>
       <c r="H14" t="n">
-        <v>194.1880049094286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>18.9569054414008</v>
+        <v>18.95690544140077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>42.59464412049036</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>90.29547644886775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>123.0708631572777</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>204.3914103690696</v>
       </c>
       <c r="W14" t="n">
-        <v>229.6915098470265</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.9917680797731</v>
       </c>
       <c r="Y14" t="n">
         <v>260.3883658759719</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.60717735949984</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>30.86856503750641</v>
+        <v>30.86856503750639</v>
       </c>
       <c r="D15" t="n">
-        <v>49.40019605022417</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>16.33965884974904</v>
+        <v>16.33965884974901</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>4.12878907567594</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1232045289026</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I15" t="n">
-        <v>56.74941852193287</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>39.441882783833</v>
       </c>
       <c r="S15" t="n">
-        <v>145.364587523205</v>
+        <v>16.14651652925649</v>
       </c>
       <c r="T15" t="n">
-        <v>56.29837653087534</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U15" t="n">
         <v>216.2889227376699</v>
       </c>
       <c r="V15" t="n">
-        <v>226.1116663261494</v>
+        <v>226.0670673411916</v>
       </c>
       <c r="W15" t="n">
         <v>238.9027100790231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.50174400358759</v>
+        <v>52.50174400358756</v>
       </c>
       <c r="C16" t="n">
-        <v>38.70173884898807</v>
+        <v>38.70173884898804</v>
       </c>
       <c r="D16" t="n">
-        <v>22.32310324656646</v>
+        <v>22.32310324656643</v>
       </c>
       <c r="E16" t="n">
-        <v>21.27085310234591</v>
+        <v>21.27085310234588</v>
       </c>
       <c r="F16" t="n">
-        <v>21.73777743053222</v>
+        <v>21.73777743053219</v>
       </c>
       <c r="G16" t="n">
-        <v>37.74587087490185</v>
+        <v>37.74587087490183</v>
       </c>
       <c r="H16" t="n">
-        <v>26.19044893016427</v>
+        <v>26.19044893016424</v>
       </c>
       <c r="I16" t="n">
-        <v>5.525274884455319</v>
+        <v>5.525274884455291</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.820769996597214</v>
+        <v>6.820769996597186</v>
       </c>
       <c r="S16" t="n">
-        <v>77.70832139488074</v>
+        <v>77.70832139488071</v>
       </c>
       <c r="T16" t="n">
-        <v>100.4899439296227</v>
+        <v>100.4899439296226</v>
       </c>
       <c r="U16" t="n">
         <v>155.0857237976439</v>
@@ -1828,10 +1828,10 @@
         <v>154.0767664738264</v>
       </c>
       <c r="X16" t="n">
-        <v>99.72186846962956</v>
+        <v>99.72186846962953</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.59673622569724</v>
+        <v>90.59673622569721</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>32.77538670841113</v>
+        <v>32.77538670841</v>
       </c>
       <c r="V17" t="n">
         <v>114.0959339202019</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>56.74941852193287</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.441882783833</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>216.2889227376699</v>
+        <v>165.5621250551076</v>
       </c>
       <c r="V18" t="n">
-        <v>79.19356733782136</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
         <v>238.9027100790231</v>
@@ -2014,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9639418688503</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.7433458784037</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.60739031761005</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,19 +2044,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.82707656697306</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>103.468657555802</v>
       </c>
       <c r="T19" t="n">
         <v>10.19446748075492</v>
       </c>
       <c r="U19" t="n">
-        <v>280.7983982923193</v>
+        <v>284.3037947915923</v>
       </c>
       <c r="V19" t="n">
         <v>38.61440395434545</v>
@@ -2068,7 +2068,7 @@
         <v>9.426392020761824</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3012597768295109</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>16.31094878665151</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>185.5164475248238</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.2889227376699</v>
+        <v>165.5621250551076</v>
       </c>
       <c r="V21" t="n">
         <v>226.1116663261494</v>
@@ -2226,7 +2226,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9639418688503</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,22 +2281,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.82707656697306</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>206.9263923888292</v>
       </c>
       <c r="T22" t="n">
         <v>10.19446748075492</v>
       </c>
       <c r="U22" t="n">
-        <v>137.8250352563647</v>
+        <v>284.3037947915923</v>
       </c>
       <c r="V22" t="n">
-        <v>38.61440395434545</v>
+        <v>170.4972931311075</v>
       </c>
       <c r="W22" t="n">
         <v>63.78129002495871</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>69.3708237493416</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.74941852193287</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.441882783833</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>165.5621250551076</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9639418688503</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.60739031761005</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>15.82707656697305</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>64.40474861250351</v>
       </c>
       <c r="T25" t="n">
         <v>10.19446748075492</v>
@@ -2542,7 +2542,7 @@
         <v>9.426392020761824</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.19916283293522</v>
+        <v>0.3012597768295109</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>288.7316531105166</v>
+        <v>288.7316531105167</v>
       </c>
       <c r="C26" t="n">
         <v>276.7429700681984</v>
       </c>
       <c r="D26" t="n">
-        <v>267.7242741127263</v>
+        <v>267.7242741127264</v>
       </c>
       <c r="E26" t="n">
         <v>289.4664116826319</v>
       </c>
       <c r="F26" t="n">
-        <v>308.638227770609</v>
+        <v>308.6382277706091</v>
       </c>
       <c r="G26" t="n">
-        <v>309.9771360190349</v>
+        <v>309.977136019035</v>
       </c>
       <c r="H26" t="n">
-        <v>222.0346248910547</v>
+        <v>222.0346248910548</v>
       </c>
       <c r="I26" t="n">
         <v>46.80352542302693</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.44126410211648</v>
+        <v>70.44126410211651</v>
       </c>
       <c r="T26" t="n">
         <v>118.1420964304939</v>
       </c>
       <c r="U26" t="n">
-        <v>150.9174831389038</v>
+        <v>150.9174831389039</v>
       </c>
       <c r="V26" t="n">
-        <v>232.2380303506957</v>
+        <v>232.2380303506958</v>
       </c>
       <c r="W26" t="n">
-        <v>257.5381298286526</v>
+        <v>257.5381298286527</v>
       </c>
       <c r="X26" t="n">
         <v>276.8383880613993</v>
       </c>
       <c r="Y26" t="n">
-        <v>288.234985857598</v>
+        <v>288.2349858575981</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>39.441882783833</v>
+        <v>39.44188278383299</v>
       </c>
       <c r="S27" t="n">
         <v>145.364587523205</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.34836398521371</v>
+        <v>80.34836398521374</v>
       </c>
       <c r="C28" t="n">
-        <v>66.54835883061419</v>
+        <v>66.54835883061422</v>
       </c>
       <c r="D28" t="n">
-        <v>50.16972322819258</v>
+        <v>50.16972322819261</v>
       </c>
       <c r="E28" t="n">
-        <v>49.11747308397203</v>
+        <v>49.11747308397206</v>
       </c>
       <c r="F28" t="n">
-        <v>49.58439741215834</v>
+        <v>49.58439741215837</v>
       </c>
       <c r="G28" t="n">
-        <v>65.59249085652797</v>
+        <v>65.592490856528</v>
       </c>
       <c r="H28" t="n">
-        <v>54.03706891179039</v>
+        <v>54.03706891179042</v>
       </c>
       <c r="I28" t="n">
-        <v>33.37189486608144</v>
+        <v>33.37189486608146</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66738997822333</v>
+        <v>34.66738997822335</v>
       </c>
       <c r="S28" t="n">
         <v>105.5549413765069</v>
@@ -2773,7 +2773,7 @@
         <v>156.7565003848393</v>
       </c>
       <c r="W28" t="n">
-        <v>181.9233864554525</v>
+        <v>181.9233864554526</v>
       </c>
       <c r="X28" t="n">
         <v>127.5684884512557</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>288.7316531105166</v>
+        <v>288.7316531105167</v>
       </c>
       <c r="C29" t="n">
         <v>276.7429700681984</v>
       </c>
       <c r="D29" t="n">
-        <v>267.7242741127263</v>
+        <v>267.7242741127264</v>
       </c>
       <c r="E29" t="n">
         <v>289.4664116826319</v>
       </c>
       <c r="F29" t="n">
-        <v>308.638227770609</v>
+        <v>308.6382277706091</v>
       </c>
       <c r="G29" t="n">
-        <v>309.9771360190349</v>
+        <v>309.977136019035</v>
       </c>
       <c r="H29" t="n">
-        <v>222.0346248910547</v>
+        <v>222.0346248910548</v>
       </c>
       <c r="I29" t="n">
-        <v>46.8035254230269</v>
+        <v>46.80352542302695</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.44126410211648</v>
+        <v>70.44126410211651</v>
       </c>
       <c r="T29" t="n">
         <v>118.1420964304939</v>
       </c>
       <c r="U29" t="n">
-        <v>150.9174831389038</v>
+        <v>150.9174831389039</v>
       </c>
       <c r="V29" t="n">
-        <v>232.2380303506957</v>
+        <v>232.2380303506958</v>
       </c>
       <c r="W29" t="n">
-        <v>257.5381298286526</v>
+        <v>257.5381298286527</v>
       </c>
       <c r="X29" t="n">
         <v>276.8383880613993</v>
       </c>
       <c r="Y29" t="n">
-        <v>288.234985857598</v>
+        <v>288.2349858575981</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.44188278383299</v>
+        <v>39.441882783833</v>
       </c>
       <c r="S30" t="n">
         <v>145.364587523205</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.34836398521371</v>
+        <v>80.34836398521374</v>
       </c>
       <c r="C31" t="n">
-        <v>66.54835883061419</v>
+        <v>66.54835883061422</v>
       </c>
       <c r="D31" t="n">
-        <v>50.16972322819258</v>
+        <v>50.16972322819261</v>
       </c>
       <c r="E31" t="n">
-        <v>49.11747308397203</v>
+        <v>49.11747308397206</v>
       </c>
       <c r="F31" t="n">
-        <v>49.58439741215834</v>
+        <v>49.58439741215837</v>
       </c>
       <c r="G31" t="n">
-        <v>65.59249085652796</v>
+        <v>65.592490856528</v>
       </c>
       <c r="H31" t="n">
-        <v>54.03706891179039</v>
+        <v>54.03706891179042</v>
       </c>
       <c r="I31" t="n">
-        <v>33.37189486608143</v>
+        <v>33.37189486608147</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66738997822333</v>
+        <v>34.66738997822336</v>
       </c>
       <c r="S31" t="n">
         <v>105.5549413765069</v>
@@ -3010,7 +3010,7 @@
         <v>156.7565003848393</v>
       </c>
       <c r="W31" t="n">
-        <v>181.9233864554525</v>
+        <v>181.9233864554526</v>
       </c>
       <c r="X31" t="n">
         <v>127.5684884512557</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288.7316531105167</v>
+        <v>288.7316531105166</v>
       </c>
       <c r="C32" t="n">
-        <v>276.7429700681985</v>
+        <v>276.7429700681984</v>
       </c>
       <c r="D32" t="n">
-        <v>267.7242741127264</v>
+        <v>267.7242741127263</v>
       </c>
       <c r="E32" t="n">
-        <v>289.466411682632</v>
+        <v>289.4664116826319</v>
       </c>
       <c r="F32" t="n">
-        <v>308.6382277706092</v>
+        <v>308.638227770609</v>
       </c>
       <c r="G32" t="n">
-        <v>309.977136019035</v>
+        <v>309.9771360190349</v>
       </c>
       <c r="H32" t="n">
-        <v>222.0346248910548</v>
+        <v>222.0346248910547</v>
       </c>
       <c r="I32" t="n">
-        <v>46.80352542302703</v>
+        <v>46.80352542302693</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.44126410211661</v>
+        <v>70.44126410211648</v>
       </c>
       <c r="T32" t="n">
-        <v>118.142096430494</v>
+        <v>118.1420964304939</v>
       </c>
       <c r="U32" t="n">
-        <v>150.917483138904</v>
+        <v>150.9174831389038</v>
       </c>
       <c r="V32" t="n">
-        <v>232.2380303506959</v>
+        <v>232.2380303506957</v>
       </c>
       <c r="W32" t="n">
-        <v>257.5381298286528</v>
+        <v>257.5381298286526</v>
       </c>
       <c r="X32" t="n">
-        <v>276.8383880613994</v>
+        <v>276.8383880613993</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.2349858575982</v>
+        <v>288.234985857598</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.44188278383299</v>
+        <v>39.441882783833</v>
       </c>
       <c r="S33" t="n">
         <v>145.364587523205</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.34836398521384</v>
+        <v>80.34836398521371</v>
       </c>
       <c r="C34" t="n">
-        <v>66.54835883061432</v>
+        <v>66.54835883061419</v>
       </c>
       <c r="D34" t="n">
-        <v>50.16972322819271</v>
+        <v>50.16972322819258</v>
       </c>
       <c r="E34" t="n">
-        <v>49.11747308397216</v>
+        <v>49.11747308397203</v>
       </c>
       <c r="F34" t="n">
-        <v>49.58439741215847</v>
+        <v>49.58439741215834</v>
       </c>
       <c r="G34" t="n">
-        <v>65.5924908565281</v>
+        <v>65.59249085652796</v>
       </c>
       <c r="H34" t="n">
-        <v>54.03706891179052</v>
+        <v>54.03706891179039</v>
       </c>
       <c r="I34" t="n">
-        <v>33.37189486608156</v>
+        <v>33.37189486608144</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66738997822345</v>
+        <v>34.66738997822333</v>
       </c>
       <c r="S34" t="n">
-        <v>105.554941376507</v>
+        <v>105.5549413765069</v>
       </c>
       <c r="T34" t="n">
-        <v>128.3365639112489</v>
+        <v>128.3365639112488</v>
       </c>
       <c r="U34" t="n">
-        <v>182.9323437792701</v>
+        <v>182.93234377927</v>
       </c>
       <c r="V34" t="n">
-        <v>156.7565003848394</v>
+        <v>156.7565003848393</v>
       </c>
       <c r="W34" t="n">
-        <v>181.9233864554527</v>
+        <v>181.9233864554525</v>
       </c>
       <c r="X34" t="n">
-        <v>127.5684884512558</v>
+        <v>127.5684884512557</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.4433562073235</v>
+        <v>118.4433562073234</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>224.0531522757346</v>
+        <v>224.0531522757345</v>
       </c>
       <c r="C35" t="n">
         <v>212.0644692334163</v>
       </c>
       <c r="D35" t="n">
-        <v>203.0457732779443</v>
+        <v>203.0457732779442</v>
       </c>
       <c r="E35" t="n">
         <v>224.7879108478498</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.762763267334407</v>
+        <v>5.762763267334378</v>
       </c>
       <c r="T35" t="n">
-        <v>53.46359559571178</v>
+        <v>53.46359559571175</v>
       </c>
       <c r="U35" t="n">
-        <v>86.23898230412178</v>
+        <v>86.23898230412175</v>
       </c>
       <c r="V35" t="n">
         <v>167.5595295159137</v>
@@ -3332,7 +3332,7 @@
         <v>212.1598872266172</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.556485022816</v>
+        <v>223.5564850228159</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.44188278383302</v>
+        <v>39.44188278383347</v>
       </c>
       <c r="S36" t="n">
         <v>145.364587523205</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.66986315043164</v>
+        <v>15.66986315043161</v>
       </c>
       <c r="C37" t="n">
-        <v>1.86985799583212</v>
+        <v>1.869857995832092</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.913990021745901</v>
+        <v>0.9139900217458727</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>83.04870327558125</v>
+        <v>40.87644054172476</v>
       </c>
       <c r="T37" t="n">
-        <v>63.6580630764667</v>
+        <v>63.65806307646667</v>
       </c>
       <c r="U37" t="n">
-        <v>118.2538429444879</v>
+        <v>130.414994821786</v>
       </c>
       <c r="V37" t="n">
-        <v>92.07799955005723</v>
+        <v>92.0779995500572</v>
       </c>
       <c r="W37" t="n">
-        <v>117.2448856206705</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>62.8899876164736</v>
+        <v>62.88998761647358</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.76485537254129</v>
+        <v>53.76485537254126</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>224.0531522757345</v>
       </c>
       <c r="C38" t="n">
-        <v>212.0644692334162</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D38" t="n">
         <v>203.0457732779442</v>
@@ -3512,7 +3512,7 @@
         <v>224.7879108478498</v>
       </c>
       <c r="F38" t="n">
-        <v>243.9597269358269</v>
+        <v>243.959726935827</v>
       </c>
       <c r="G38" t="n">
         <v>245.2986351842528</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.76276326733435</v>
+        <v>5.762763267334378</v>
       </c>
       <c r="T38" t="n">
-        <v>53.46359559571172</v>
+        <v>53.46359559571175</v>
       </c>
       <c r="U38" t="n">
-        <v>86.23898230412172</v>
+        <v>86.23898230412175</v>
       </c>
       <c r="V38" t="n">
-        <v>167.5595295159136</v>
+        <v>167.5595295159137</v>
       </c>
       <c r="W38" t="n">
-        <v>192.8596289938705</v>
+        <v>192.8596289938706</v>
       </c>
       <c r="X38" t="n">
-        <v>212.1598872266171</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y38" t="n">
         <v>223.5564850228159</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.44188278383299</v>
+        <v>39.441882783833</v>
       </c>
       <c r="S39" t="n">
         <v>145.364587523205</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.66986315043158</v>
+        <v>15.66986315043161</v>
       </c>
       <c r="C40" t="n">
-        <v>14.03100987313045</v>
+        <v>1.869857995832092</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>11.89510306113513</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9639418688503</v>
+        <v>0.9139900217458727</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.82707656697306</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>40.87644054172473</v>
+        <v>40.87644054172476</v>
       </c>
       <c r="T40" t="n">
-        <v>63.65806307646664</v>
+        <v>63.65806307646667</v>
       </c>
       <c r="U40" t="n">
         <v>118.2538429444879</v>
       </c>
       <c r="V40" t="n">
-        <v>92.07799955005717</v>
+        <v>92.0779995500572</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2448856206704</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X40" t="n">
-        <v>62.88998761647355</v>
+        <v>62.88998761647358</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.76485537254123</v>
+        <v>53.76485537254126</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>224.0531522757346</v>
       </c>
       <c r="C41" t="n">
-        <v>212.0644692334164</v>
+        <v>212.0644692334163</v>
       </c>
       <c r="D41" t="n">
         <v>203.0457732779443</v>
       </c>
       <c r="E41" t="n">
-        <v>224.7879108478499</v>
+        <v>224.7879108478498</v>
       </c>
       <c r="F41" t="n">
         <v>243.959726935827</v>
       </c>
       <c r="G41" t="n">
-        <v>245.2986351842529</v>
+        <v>245.2986351842528</v>
       </c>
       <c r="H41" t="n">
-        <v>157.3561240562727</v>
+        <v>157.3561240562726</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.762763267334464</v>
+        <v>5.762763267334407</v>
       </c>
       <c r="T41" t="n">
-        <v>53.46359559571184</v>
+        <v>53.46359559571178</v>
       </c>
       <c r="U41" t="n">
-        <v>86.23898230412183</v>
+        <v>86.23898230412178</v>
       </c>
       <c r="V41" t="n">
         <v>167.5595295159137</v>
@@ -3803,7 +3803,7 @@
         <v>192.8596289938706</v>
       </c>
       <c r="X41" t="n">
-        <v>212.1598872266173</v>
+        <v>212.1598872266172</v>
       </c>
       <c r="Y41" t="n">
         <v>223.556485022816</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.44188278383299</v>
+        <v>39.441882783833</v>
       </c>
       <c r="S42" t="n">
         <v>145.364587523205</v>
       </c>
       <c r="T42" t="n">
-        <v>185.5164475248243</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U42" t="n">
         <v>216.2889227376699</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.66986315043169</v>
+        <v>15.66986315043164</v>
       </c>
       <c r="C43" t="n">
-        <v>1.869857995832177</v>
+        <v>1.86985799583212</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9139900217459579</v>
+        <v>0.9139900217459012</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.82707656697306</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>206.9263923888292</v>
+        <v>40.87644054172479</v>
       </c>
       <c r="T43" t="n">
-        <v>63.65806307646675</v>
+        <v>63.6580630764667</v>
       </c>
       <c r="U43" t="n">
-        <v>118.253842944488</v>
+        <v>280.6378701019171</v>
       </c>
       <c r="V43" t="n">
-        <v>92.07799955005729</v>
+        <v>92.07799955005723</v>
       </c>
       <c r="W43" t="n">
-        <v>129.4060374979678</v>
+        <v>117.2448856206705</v>
       </c>
       <c r="X43" t="n">
-        <v>62.88998761647366</v>
+        <v>62.8899876164736</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.76485537254135</v>
+        <v>53.76485537254129</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0531522757345</v>
+        <v>224.0531522757346</v>
       </c>
       <c r="C44" t="n">
         <v>212.0644692334163</v>
       </c>
       <c r="D44" t="n">
-        <v>203.0457732779442</v>
+        <v>203.0457732779443</v>
       </c>
       <c r="E44" t="n">
         <v>224.7879108478498</v>
@@ -3989,7 +3989,7 @@
         <v>243.959726935827</v>
       </c>
       <c r="G44" t="n">
-        <v>245.2986351842528</v>
+        <v>245.2986351842529</v>
       </c>
       <c r="H44" t="n">
         <v>157.3561240562726</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.762763267334378</v>
+        <v>5.762763267334407</v>
       </c>
       <c r="T44" t="n">
-        <v>53.46359559571175</v>
+        <v>53.46359559571179</v>
       </c>
       <c r="U44" t="n">
-        <v>86.23898230412175</v>
+        <v>86.23898230412178</v>
       </c>
       <c r="V44" t="n">
         <v>167.5595295159137</v>
@@ -4043,7 +4043,7 @@
         <v>212.1598872266172</v>
       </c>
       <c r="Y44" t="n">
-        <v>223.5564850228159</v>
+        <v>223.556485022816</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.44188278383299</v>
+        <v>39.441882783833</v>
       </c>
       <c r="S45" t="n">
         <v>145.364587523205</v>
@@ -4113,7 +4113,7 @@
         <v>216.2889227376699</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>226.1116663261498</v>
       </c>
       <c r="W45" t="n">
         <v>238.9027100790231</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.66986315043161</v>
+        <v>15.66986315043164</v>
       </c>
       <c r="C46" t="n">
-        <v>1.869857995832092</v>
+        <v>1.86985799583212</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9139900217458726</v>
+        <v>0.9139900217459012</v>
       </c>
       <c r="H46" t="n">
-        <v>155.4085199241127</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.82707656697306</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>40.87644054172476</v>
+        <v>203.2604676991539</v>
       </c>
       <c r="T46" t="n">
-        <v>86.46064687675647</v>
+        <v>63.6580630764667</v>
       </c>
       <c r="U46" t="n">
         <v>118.2538429444879</v>
       </c>
       <c r="V46" t="n">
-        <v>92.0779995500572</v>
+        <v>92.07799955005723</v>
       </c>
       <c r="W46" t="n">
         <v>117.2448856206705</v>
       </c>
       <c r="X46" t="n">
-        <v>62.88998761647358</v>
+        <v>62.8899876164736</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.76485537254126</v>
+        <v>53.76485537254129</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>800.6440495588342</v>
+        <v>1326.572596952858</v>
       </c>
       <c r="C11" t="n">
-        <v>800.6440495588342</v>
+        <v>1326.572596952858</v>
       </c>
       <c r="D11" t="n">
-        <v>800.6440495588342</v>
+        <v>1084.271936214373</v>
       </c>
       <c r="E11" t="n">
-        <v>536.3816336992325</v>
+        <v>820.0095203547708</v>
       </c>
       <c r="F11" t="n">
         <v>536.3816336992325</v>
       </c>
       <c r="G11" t="n">
-        <v>251.4013144695266</v>
+        <v>251.4013144695264</v>
       </c>
       <c r="H11" t="n">
-        <v>55.25181456101289</v>
+        <v>55.25181456101286</v>
       </c>
       <c r="I11" t="n">
         <v>36.1034252262646</v>
       </c>
       <c r="J11" t="n">
-        <v>158.043046435508</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K11" t="n">
-        <v>158.043046435508</v>
+        <v>351.0925257100923</v>
       </c>
       <c r="L11" t="n">
-        <v>598.7848857264</v>
+        <v>791.8343650009845</v>
       </c>
       <c r="M11" t="n">
-        <v>598.7848857264</v>
+        <v>1238.614252176009</v>
       </c>
       <c r="N11" t="n">
-        <v>930.2787636703692</v>
+        <v>1685.394139351033</v>
       </c>
       <c r="O11" t="n">
-        <v>1334.424833309986</v>
+        <v>1685.394139351033</v>
       </c>
       <c r="P11" t="n">
-        <v>1647.196693636563</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="Q11" t="n">
         <v>1805.17126131323</v>
@@ -5066,25 +5066,25 @@
         <v>1805.17126131323</v>
       </c>
       <c r="S11" t="n">
-        <v>1762.146368262229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="T11" t="n">
-        <v>1683.50846572971</v>
+        <v>1713.963709344677</v>
       </c>
       <c r="U11" t="n">
-        <v>1559.19446254054</v>
+        <v>1713.963709344677</v>
       </c>
       <c r="V11" t="n">
-        <v>1559.19446254054</v>
+        <v>1558.584223060965</v>
       </c>
       <c r="W11" t="n">
-        <v>1327.182836432433</v>
+        <v>1326.572596952858</v>
       </c>
       <c r="X11" t="n">
-        <v>1327.182836432433</v>
+        <v>1326.572596952858</v>
       </c>
       <c r="Y11" t="n">
-        <v>1064.164285042562</v>
+        <v>1326.572596952858</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>673.5741612276321</v>
+        <v>452.0404308604581</v>
       </c>
       <c r="C12" t="n">
-        <v>511.8704884685868</v>
+        <v>420.8600621357042</v>
       </c>
       <c r="D12" t="n">
-        <v>373.0318514587989</v>
+        <v>412.5447291602076</v>
       </c>
       <c r="E12" t="n">
-        <v>226.0038415156701</v>
+        <v>265.5167192170788</v>
       </c>
       <c r="F12" t="n">
-        <v>221.8333474998358</v>
+        <v>261.3462252012446</v>
       </c>
       <c r="G12" t="n">
-        <v>93.42607019791397</v>
+        <v>132.9389478993228</v>
       </c>
       <c r="H12" t="n">
-        <v>93.42607019791397</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I12" t="n">
         <v>36.1034252262646</v>
@@ -5124,10 +5124,10 @@
         <v>406.4308839238593</v>
       </c>
       <c r="L12" t="n">
-        <v>798.2172206152198</v>
+        <v>840.6109578579982</v>
       </c>
       <c r="M12" t="n">
-        <v>798.2172206152198</v>
+        <v>840.6109578579982</v>
       </c>
       <c r="N12" t="n">
         <v>1244.997107790244</v>
@@ -5145,25 +5145,25 @@
         <v>1805.17126131323</v>
       </c>
       <c r="S12" t="n">
-        <v>1707.437508063157</v>
+        <v>1658.338344623124</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.570461062273</v>
+        <v>1470.947993587948</v>
       </c>
       <c r="U12" t="n">
-        <v>1562.620105765584</v>
+        <v>1252.474334256969</v>
       </c>
       <c r="V12" t="n">
-        <v>1334.224483213918</v>
+        <v>1112.690752846744</v>
       </c>
       <c r="W12" t="n">
-        <v>1092.908614447228</v>
+        <v>871.3748840800542</v>
       </c>
       <c r="X12" t="n">
-        <v>894.9916263250228</v>
+        <v>673.4578959578488</v>
       </c>
       <c r="Y12" t="n">
-        <v>832.993604008893</v>
+        <v>611.459873641719</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.3509679716728</v>
+        <v>211.3509679716726</v>
       </c>
       <c r="C13" t="n">
-        <v>172.2583024676444</v>
+        <v>172.2583024676443</v>
       </c>
       <c r="D13" t="n">
-        <v>149.7097133296985</v>
+        <v>149.7097133296984</v>
       </c>
       <c r="E13" t="n">
-        <v>128.2240031253087</v>
+        <v>128.2240031253086</v>
       </c>
       <c r="F13" t="n">
-        <v>106.2666521853772</v>
+        <v>106.2666521853771</v>
       </c>
       <c r="G13" t="n">
-        <v>68.1395098874965</v>
+        <v>68.13950988749644</v>
       </c>
       <c r="H13" t="n">
-        <v>41.68451096813866</v>
+        <v>41.68451096813863</v>
       </c>
       <c r="I13" t="n">
         <v>36.1034252262646</v>
       </c>
       <c r="J13" t="n">
-        <v>92.86583671997292</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K13" t="n">
-        <v>157.1354235026492</v>
+        <v>100.3730120089409</v>
       </c>
       <c r="L13" t="n">
-        <v>296.9836559442225</v>
+        <v>240.2212444505142</v>
       </c>
       <c r="M13" t="n">
-        <v>456.3514559382406</v>
+        <v>399.5890444445323</v>
       </c>
       <c r="N13" t="n">
-        <v>615.1643033222078</v>
+        <v>615.1643033222076</v>
       </c>
       <c r="O13" t="n">
-        <v>878.8610094480204</v>
+        <v>878.8610094480201</v>
       </c>
       <c r="P13" t="n">
-        <v>973.7522215644202</v>
+        <v>973.75222156442</v>
       </c>
       <c r="Q13" t="n">
         <v>1086.009306047126</v>
@@ -5227,22 +5227,22 @@
         <v>1000.626385449673</v>
       </c>
       <c r="T13" t="n">
-        <v>899.1213915813677</v>
+        <v>899.1213915813673</v>
       </c>
       <c r="U13" t="n">
-        <v>742.4691453211213</v>
+        <v>742.469145321121</v>
       </c>
       <c r="V13" t="n">
-        <v>612.2571449138353</v>
+        <v>612.257144913835</v>
       </c>
       <c r="W13" t="n">
-        <v>456.6240474655258</v>
+        <v>456.6240474655255</v>
       </c>
       <c r="X13" t="n">
-        <v>355.8948873951929</v>
+        <v>355.8948873951926</v>
       </c>
       <c r="Y13" t="n">
-        <v>264.3830326217613</v>
+        <v>264.3830326217611</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>788.0744001228005</v>
+        <v>959.8759002202073</v>
       </c>
       <c r="C14" t="n">
-        <v>536.6639454898991</v>
+        <v>708.4654455873059</v>
       </c>
       <c r="D14" t="n">
-        <v>536.6639454898991</v>
+        <v>466.1647848488207</v>
       </c>
       <c r="E14" t="n">
-        <v>536.6639454898991</v>
+        <v>340.2321337907183</v>
       </c>
       <c r="F14" t="n">
-        <v>536.3816336992325</v>
+        <v>340.2321337907183</v>
       </c>
       <c r="G14" t="n">
-        <v>251.4013144695266</v>
+        <v>55.25181456101286</v>
       </c>
       <c r="H14" t="n">
-        <v>55.25181456101282</v>
+        <v>55.25181456101286</v>
       </c>
       <c r="I14" t="n">
         <v>36.1034252262646</v>
@@ -5279,19 +5279,19 @@
         <v>36.1034252262646</v>
       </c>
       <c r="K14" t="n">
-        <v>36.1034252262646</v>
+        <v>351.0925257100923</v>
       </c>
       <c r="L14" t="n">
-        <v>476.8452645171567</v>
+        <v>791.8343650009845</v>
       </c>
       <c r="M14" t="n">
-        <v>641.4734441720112</v>
+        <v>1238.614252176009</v>
       </c>
       <c r="N14" t="n">
-        <v>1088.253331347036</v>
+        <v>1401.025191673613</v>
       </c>
       <c r="O14" t="n">
-        <v>1492.399400986652</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="P14" t="n">
         <v>1805.17126131323</v>
@@ -5303,25 +5303,25 @@
         <v>1805.17126131323</v>
       </c>
       <c r="S14" t="n">
-        <v>1762.146368262229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="T14" t="n">
-        <v>1670.938816293676</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="U14" t="n">
-        <v>1546.624813104507</v>
+        <v>1680.857258124061</v>
       </c>
       <c r="V14" t="n">
-        <v>1546.624813104507</v>
+        <v>1474.401288054293</v>
       </c>
       <c r="W14" t="n">
-        <v>1314.613186996399</v>
+        <v>1474.401288054293</v>
       </c>
       <c r="X14" t="n">
-        <v>1314.613186996399</v>
+        <v>1222.894451610078</v>
       </c>
       <c r="Y14" t="n">
-        <v>1051.594635606528</v>
+        <v>959.8759002202073</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>454.1114081130722</v>
+        <v>323.6331535585363</v>
       </c>
       <c r="C15" t="n">
-        <v>422.9310393883183</v>
+        <v>292.4527848337824</v>
       </c>
       <c r="D15" t="n">
-        <v>373.0318514587989</v>
+        <v>153.6141478239945</v>
       </c>
       <c r="E15" t="n">
-        <v>356.5271455499615</v>
+        <v>137.1094419151571</v>
       </c>
       <c r="F15" t="n">
-        <v>221.8333474998358</v>
+        <v>132.9389478993228</v>
       </c>
       <c r="G15" t="n">
-        <v>93.42607019791397</v>
+        <v>132.9389478993228</v>
       </c>
       <c r="H15" t="n">
-        <v>93.42607019791397</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I15" t="n">
         <v>36.1034252262646</v>
@@ -5364,43 +5364,43 @@
         <v>840.6109578579982</v>
       </c>
       <c r="M15" t="n">
-        <v>840.6109578579982</v>
+        <v>996.1766675899491</v>
       </c>
       <c r="N15" t="n">
-        <v>1244.997107790244</v>
+        <v>996.1766675899491</v>
       </c>
       <c r="O15" t="n">
-        <v>1244.997107790244</v>
+        <v>1442.956554764974</v>
       </c>
       <c r="P15" t="n">
-        <v>1607.211814338501</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="Q15" t="n">
         <v>1805.17126131323</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.330975672994</v>
+        <v>1765.330975672995</v>
       </c>
       <c r="S15" t="n">
-        <v>1618.498058982888</v>
+        <v>1749.02136301718</v>
       </c>
       <c r="T15" t="n">
         <v>1561.631011982004</v>
       </c>
       <c r="U15" t="n">
-        <v>1343.157352651024</v>
+        <v>1343.157352651025</v>
       </c>
       <c r="V15" t="n">
-        <v>1114.761730099358</v>
+        <v>1114.806779579114</v>
       </c>
       <c r="W15" t="n">
-        <v>873.4458613326684</v>
+        <v>873.4909108124239</v>
       </c>
       <c r="X15" t="n">
-        <v>675.528873210463</v>
+        <v>675.5739226902184</v>
       </c>
       <c r="Y15" t="n">
-        <v>483.0075468600418</v>
+        <v>483.0525963397972</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.3509679716728</v>
+        <v>211.3509679716726</v>
       </c>
       <c r="C16" t="n">
-        <v>172.2583024676444</v>
+        <v>172.2583024676443</v>
       </c>
       <c r="D16" t="n">
-        <v>149.7097133296985</v>
+        <v>149.7097133296984</v>
       </c>
       <c r="E16" t="n">
-        <v>128.2240031253087</v>
+        <v>128.2240031253086</v>
       </c>
       <c r="F16" t="n">
-        <v>106.2666521853772</v>
+        <v>106.2666521853771</v>
       </c>
       <c r="G16" t="n">
-        <v>68.1395098874965</v>
+        <v>68.13950988749644</v>
       </c>
       <c r="H16" t="n">
-        <v>41.68451096813866</v>
+        <v>41.68451096813863</v>
       </c>
       <c r="I16" t="n">
         <v>36.1034252262646</v>
       </c>
       <c r="J16" t="n">
-        <v>92.86583671997289</v>
+        <v>77.19703091866921</v>
       </c>
       <c r="K16" t="n">
-        <v>285.0613137866582</v>
+        <v>141.4666177013455</v>
       </c>
       <c r="L16" t="n">
-        <v>424.9095462282314</v>
+        <v>409.2407404269278</v>
       </c>
       <c r="M16" t="n">
-        <v>584.2773462222495</v>
+        <v>568.6085404209459</v>
       </c>
       <c r="N16" t="n">
-        <v>743.0901936062168</v>
+        <v>727.4213878049131</v>
       </c>
       <c r="O16" t="n">
-        <v>878.8610094480204</v>
+        <v>991.1180939307258</v>
       </c>
       <c r="P16" t="n">
-        <v>973.7522215644202</v>
+        <v>1086.009306047126</v>
       </c>
       <c r="Q16" t="n">
         <v>1086.009306047126</v>
@@ -5464,22 +5464,22 @@
         <v>1000.626385449673</v>
       </c>
       <c r="T16" t="n">
-        <v>899.1213915813677</v>
+        <v>899.1213915813673</v>
       </c>
       <c r="U16" t="n">
-        <v>742.4691453211213</v>
+        <v>742.469145321121</v>
       </c>
       <c r="V16" t="n">
-        <v>612.2571449138353</v>
+        <v>612.257144913835</v>
       </c>
       <c r="W16" t="n">
-        <v>456.6240474655258</v>
+        <v>456.6240474655255</v>
       </c>
       <c r="X16" t="n">
-        <v>355.8948873951929</v>
+        <v>355.8948873951926</v>
       </c>
       <c r="Y16" t="n">
-        <v>264.3830326217613</v>
+        <v>264.3830326217611</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1011.589350439691</v>
+        <v>1011.58935043969</v>
       </c>
       <c r="C17" t="n">
-        <v>851.386447775343</v>
+        <v>851.3864477753419</v>
       </c>
       <c r="D17" t="n">
-        <v>700.2933390054112</v>
+        <v>700.2933390054102</v>
       </c>
       <c r="E17" t="n">
-        <v>527.2384751143627</v>
+        <v>527.2384751143616</v>
       </c>
       <c r="F17" t="n">
-        <v>334.8181404273776</v>
+        <v>334.8181404273765</v>
       </c>
       <c r="G17" t="n">
         <v>141.0453731662251</v>
@@ -5513,25 +5513,25 @@
         <v>36.1034252262646</v>
       </c>
       <c r="J17" t="n">
-        <v>158.043046435508</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K17" t="n">
-        <v>473.0321469193357</v>
+        <v>351.0925257100923</v>
       </c>
       <c r="L17" t="n">
-        <v>913.7739862102278</v>
+        <v>351.0925257100923</v>
       </c>
       <c r="M17" t="n">
-        <v>930.2787636703692</v>
+        <v>797.8724128851168</v>
       </c>
       <c r="N17" t="n">
-        <v>930.2787636703692</v>
+        <v>1088.253331347036</v>
       </c>
       <c r="O17" t="n">
-        <v>1334.424833309986</v>
+        <v>1492.399400986652</v>
       </c>
       <c r="P17" t="n">
-        <v>1647.196693636563</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="Q17" t="n">
         <v>1805.17126131323</v>
@@ -5543,7 +5543,7 @@
         <v>1805.17126131323</v>
       </c>
       <c r="T17" t="n">
-        <v>1805.17126131323</v>
+        <v>1805.171261313229</v>
       </c>
       <c r="U17" t="n">
         <v>1772.064810092613</v>
@@ -5552,13 +5552,13 @@
         <v>1656.816391991399</v>
       </c>
       <c r="W17" t="n">
-        <v>1516.012317851845</v>
+        <v>1516.012317851844</v>
       </c>
       <c r="X17" t="n">
         <v>1355.713033376182</v>
       </c>
       <c r="Y17" t="n">
-        <v>1183.902033954865</v>
+        <v>1183.902033954864</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>675.6901879600016</v>
+        <v>618.3675429883523</v>
       </c>
       <c r="C18" t="n">
-        <v>513.9865152009563</v>
+        <v>456.663870229307</v>
       </c>
       <c r="D18" t="n">
-        <v>375.1478781911684</v>
+        <v>317.825233219519</v>
       </c>
       <c r="E18" t="n">
-        <v>228.1198682480396</v>
+        <v>170.7972232763902</v>
       </c>
       <c r="F18" t="n">
-        <v>93.42607019791397</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="G18" t="n">
-        <v>93.42607019791397</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="H18" t="n">
-        <v>93.42607019791397</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I18" t="n">
         <v>36.1034252262646</v>
       </c>
       <c r="J18" t="n">
-        <v>126.1021350520851</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K18" t="n">
-        <v>406.4308839238593</v>
+        <v>316.4321740980388</v>
       </c>
       <c r="L18" t="n">
-        <v>840.6109578579982</v>
+        <v>750.6122480321777</v>
       </c>
       <c r="M18" t="n">
-        <v>840.6109578579982</v>
+        <v>798.2172206152197</v>
       </c>
       <c r="N18" t="n">
-        <v>840.6109578579982</v>
+        <v>1244.997107790244</v>
       </c>
       <c r="O18" t="n">
         <v>1244.997107790244</v>
@@ -5616,28 +5616,28 @@
         <v>1805.17126131323</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.330975672994</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S18" t="n">
-        <v>1765.330975672994</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="T18" t="n">
-        <v>1765.330975672994</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="U18" t="n">
-        <v>1546.857316342015</v>
+        <v>1637.936791560596</v>
       </c>
       <c r="V18" t="n">
-        <v>1466.863813980579</v>
+        <v>1409.54116900893</v>
       </c>
       <c r="W18" t="n">
-        <v>1225.547945213889</v>
+        <v>1168.22530024224</v>
       </c>
       <c r="X18" t="n">
-        <v>1027.630957091684</v>
+        <v>970.3083121200344</v>
       </c>
       <c r="Y18" t="n">
-        <v>835.1096307412624</v>
+        <v>777.7869857696132</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>381.8758273119859</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="C19" t="n">
-        <v>381.8758273119859</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="D19" t="n">
-        <v>381.8758273119859</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="E19" t="n">
-        <v>381.8758273119859</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="F19" t="n">
-        <v>381.8758273119859</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="G19" t="n">
-        <v>213.2253809798139</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="H19" t="n">
-        <v>213.2253809798139</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I19" t="n">
-        <v>77.12099120364849</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="J19" t="n">
         <v>36.1034252262646</v>
@@ -5692,31 +5692,31 @@
         <v>789.063919786703</v>
       </c>
       <c r="Q19" t="n">
-        <v>789.063919786703</v>
+        <v>773.0769737594575</v>
       </c>
       <c r="R19" t="n">
-        <v>789.063919786703</v>
+        <v>773.0769737594575</v>
       </c>
       <c r="S19" t="n">
-        <v>789.063919786703</v>
+        <v>668.5631782485464</v>
       </c>
       <c r="T19" t="n">
-        <v>778.7664778869505</v>
+        <v>658.2657363487939</v>
       </c>
       <c r="U19" t="n">
-        <v>495.1317321371329</v>
+        <v>371.0901860542562</v>
       </c>
       <c r="V19" t="n">
-        <v>456.1272836984002</v>
+        <v>332.0857376155234</v>
       </c>
       <c r="W19" t="n">
-        <v>391.7017382186439</v>
+        <v>267.6601921357671</v>
       </c>
       <c r="X19" t="n">
-        <v>382.1801301168642</v>
+        <v>258.1385840339875</v>
       </c>
       <c r="Y19" t="n">
-        <v>381.8758273119859</v>
+        <v>36.1034252262646</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>1011.589350439691</v>
       </c>
       <c r="C20" t="n">
-        <v>851.3864477753428</v>
+        <v>851.3864477753432</v>
       </c>
       <c r="D20" t="n">
-        <v>700.2933390054111</v>
+        <v>700.2933390054113</v>
       </c>
       <c r="E20" t="n">
-        <v>527.2384751143626</v>
+        <v>527.2384751143628</v>
       </c>
       <c r="F20" t="n">
-        <v>334.8181404273776</v>
+        <v>334.8181404273778</v>
       </c>
       <c r="G20" t="n">
         <v>141.0453731662251</v>
@@ -5750,25 +5750,25 @@
         <v>36.1034252262646</v>
       </c>
       <c r="J20" t="n">
-        <v>158.043046435508</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="K20" t="n">
-        <v>473.0321469193357</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="L20" t="n">
-        <v>913.7739862102278</v>
+        <v>476.8452645171567</v>
       </c>
       <c r="M20" t="n">
-        <v>1334.424833309986</v>
+        <v>923.6251516921811</v>
       </c>
       <c r="N20" t="n">
-        <v>1334.424833309986</v>
+        <v>1370.405038867206</v>
       </c>
       <c r="O20" t="n">
-        <v>1334.424833309986</v>
+        <v>1774.551108506822</v>
       </c>
       <c r="P20" t="n">
-        <v>1647.196693636563</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="Q20" t="n">
         <v>1805.17126131323</v>
@@ -5780,13 +5780,13 @@
         <v>1805.17126131323</v>
       </c>
       <c r="T20" t="n">
-        <v>1805.171261313229</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="U20" t="n">
-        <v>1772.064810092613</v>
+        <v>1772.064810092614</v>
       </c>
       <c r="V20" t="n">
-        <v>1656.816391991399</v>
+        <v>1656.8163919914</v>
       </c>
       <c r="W20" t="n">
         <v>1516.012317851845</v>
@@ -5795,7 +5795,7 @@
         <v>1355.713033376183</v>
       </c>
       <c r="Y20" t="n">
-        <v>1183.902033954865</v>
+        <v>1183.902033954866</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>715.2030656614104</v>
+        <v>618.3675429883523</v>
       </c>
       <c r="C21" t="n">
-        <v>553.4993929023651</v>
+        <v>456.663870229307</v>
       </c>
       <c r="D21" t="n">
-        <v>414.6607558925772</v>
+        <v>317.825233219519</v>
       </c>
       <c r="E21" t="n">
-        <v>267.6327459494485</v>
+        <v>170.7972232763902</v>
       </c>
       <c r="F21" t="n">
-        <v>132.9389478993228</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="G21" t="n">
-        <v>132.9389478993228</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="H21" t="n">
         <v>36.1034252262646</v>
@@ -5832,19 +5832,19 @@
         <v>126.1021350520851</v>
       </c>
       <c r="K21" t="n">
-        <v>406.4308839238593</v>
+        <v>126.1021350520851</v>
       </c>
       <c r="L21" t="n">
-        <v>798.2172206152198</v>
+        <v>560.282208986224</v>
       </c>
       <c r="M21" t="n">
-        <v>798.2172206152198</v>
+        <v>1007.062096161248</v>
       </c>
       <c r="N21" t="n">
-        <v>798.2172206152198</v>
+        <v>1160.431927163476</v>
       </c>
       <c r="O21" t="n">
-        <v>1244.997107790244</v>
+        <v>1607.211814338501</v>
       </c>
       <c r="P21" t="n">
         <v>1607.211814338501</v>
@@ -5853,28 +5853,28 @@
         <v>1805.17126131323</v>
       </c>
       <c r="R21" t="n">
-        <v>1788.695555468127</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S21" t="n">
-        <v>1788.695555468127</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="T21" t="n">
-        <v>1601.305204432952</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="U21" t="n">
-        <v>1382.831545101972</v>
+        <v>1637.936791560596</v>
       </c>
       <c r="V21" t="n">
-        <v>1154.435922550306</v>
+        <v>1409.54116900893</v>
       </c>
       <c r="W21" t="n">
-        <v>913.1200537836158</v>
+        <v>1168.22530024224</v>
       </c>
       <c r="X21" t="n">
-        <v>715.2030656614104</v>
+        <v>970.3083121200344</v>
       </c>
       <c r="Y21" t="n">
-        <v>715.2030656614104</v>
+        <v>777.7869857696132</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>510.3064197048968</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="C22" t="n">
-        <v>510.3064197048968</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="D22" t="n">
-        <v>357.2345265326595</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="E22" t="n">
-        <v>357.2345265326595</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="F22" t="n">
-        <v>204.7538715584366</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="G22" t="n">
         <v>36.1034252262646</v>
@@ -5929,31 +5929,31 @@
         <v>789.063919786703</v>
       </c>
       <c r="Q22" t="n">
-        <v>773.0769737594575</v>
+        <v>789.063919786703</v>
       </c>
       <c r="R22" t="n">
-        <v>773.0769737594575</v>
+        <v>789.063919786703</v>
       </c>
       <c r="S22" t="n">
-        <v>773.0769737594575</v>
+        <v>580.0473618181886</v>
       </c>
       <c r="T22" t="n">
-        <v>762.779531859705</v>
+        <v>569.7499199184361</v>
       </c>
       <c r="U22" t="n">
-        <v>623.5623245300437</v>
+        <v>282.5743696238985</v>
       </c>
       <c r="V22" t="n">
-        <v>584.557876091311</v>
+        <v>110.3548816126788</v>
       </c>
       <c r="W22" t="n">
-        <v>520.1323306115547</v>
+        <v>45.92933613292251</v>
       </c>
       <c r="X22" t="n">
-        <v>510.6107225097751</v>
+        <v>36.4077280311429</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.3064197048968</v>
+        <v>36.1034252262646</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>1011.589350439691</v>
       </c>
       <c r="C23" t="n">
-        <v>851.3864477753433</v>
+        <v>851.3864477753432</v>
       </c>
       <c r="D23" t="n">
-        <v>700.2933390054114</v>
+        <v>700.2933390054113</v>
       </c>
       <c r="E23" t="n">
-        <v>527.2384751143629</v>
+        <v>527.2384751143628</v>
       </c>
       <c r="F23" t="n">
-        <v>334.8181404273779</v>
+        <v>334.8181404273777</v>
       </c>
       <c r="G23" t="n">
-        <v>141.0453731662253</v>
+        <v>141.0453731662251</v>
       </c>
       <c r="H23" t="n">
-        <v>36.10342522626476</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I23" t="n">
         <v>36.1034252262646</v>
@@ -5993,19 +5993,19 @@
         <v>473.0321469193357</v>
       </c>
       <c r="L23" t="n">
-        <v>473.0321469193357</v>
+        <v>483.498876495345</v>
       </c>
       <c r="M23" t="n">
-        <v>483.4988764953449</v>
+        <v>930.2787636703694</v>
       </c>
       <c r="N23" t="n">
-        <v>930.2787636703692</v>
+        <v>930.2787636703694</v>
       </c>
       <c r="O23" t="n">
         <v>1334.424833309986</v>
       </c>
       <c r="P23" t="n">
-        <v>1647.196693636563</v>
+        <v>1647.196693636564</v>
       </c>
       <c r="Q23" t="n">
         <v>1805.17126131323</v>
@@ -6020,7 +6020,7 @@
         <v>1805.17126131323</v>
       </c>
       <c r="U23" t="n">
-        <v>1772.064810092613</v>
+        <v>1772.064810092614</v>
       </c>
       <c r="V23" t="n">
         <v>1656.8163919914</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>745.7617271007507</v>
+        <v>618.3675429883523</v>
       </c>
       <c r="C24" t="n">
-        <v>584.0580543417054</v>
+        <v>456.663870229307</v>
       </c>
       <c r="D24" t="n">
-        <v>445.2194173319175</v>
+        <v>317.825233219519</v>
       </c>
       <c r="E24" t="n">
-        <v>298.1914073887887</v>
+        <v>170.7972232763902</v>
       </c>
       <c r="F24" t="n">
-        <v>163.4976093386631</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="G24" t="n">
-        <v>163.4976093386631</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="H24" t="n">
-        <v>93.42607019791397</v>
+        <v>36.1034252262646</v>
       </c>
       <c r="I24" t="n">
         <v>36.1034252262646</v>
@@ -6072,13 +6072,13 @@
         <v>406.4308839238593</v>
       </c>
       <c r="L24" t="n">
-        <v>798.2172206152198</v>
+        <v>798.2172206152197</v>
       </c>
       <c r="M24" t="n">
-        <v>798.2172206152198</v>
+        <v>798.2172206152197</v>
       </c>
       <c r="N24" t="n">
-        <v>798.2172206152198</v>
+        <v>798.2172206152197</v>
       </c>
       <c r="O24" t="n">
         <v>1244.997107790244</v>
@@ -6090,28 +6090,28 @@
         <v>1805.17126131323</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.330975672994</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="S24" t="n">
-        <v>1765.330975672994</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="T24" t="n">
-        <v>1765.330975672994</v>
+        <v>1805.17126131323</v>
       </c>
       <c r="U24" t="n">
-        <v>1765.330975672994</v>
+        <v>1637.936791560596</v>
       </c>
       <c r="V24" t="n">
-        <v>1536.935353121328</v>
+        <v>1409.54116900893</v>
       </c>
       <c r="W24" t="n">
-        <v>1295.619484354638</v>
+        <v>1168.22530024224</v>
       </c>
       <c r="X24" t="n">
-        <v>1097.702496232433</v>
+        <v>970.3083121200344</v>
       </c>
       <c r="Y24" t="n">
-        <v>905.1811698820117</v>
+        <v>777.7869857696132</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.4417342689936</v>
+        <v>381.6106604165525</v>
       </c>
       <c r="C25" t="n">
-        <v>357.8257647306739</v>
+        <v>381.6106604165525</v>
       </c>
       <c r="D25" t="n">
-        <v>204.7538715584366</v>
+        <v>381.6106604165525</v>
       </c>
       <c r="E25" t="n">
-        <v>204.7538715584366</v>
+        <v>229.6016461778714</v>
       </c>
       <c r="F25" t="n">
-        <v>204.7538715584366</v>
+        <v>77.12099120364849</v>
       </c>
       <c r="G25" t="n">
-        <v>36.1034252262646</v>
+        <v>77.12099120364849</v>
       </c>
       <c r="H25" t="n">
-        <v>36.1034252262646</v>
+        <v>77.12099120364849</v>
       </c>
       <c r="I25" t="n">
-        <v>36.1034252262646</v>
+        <v>77.12099120364849</v>
       </c>
       <c r="J25" t="n">
         <v>36.1034252262646</v>
@@ -6166,31 +6166,31 @@
         <v>789.063919786703</v>
       </c>
       <c r="Q25" t="n">
-        <v>789.063919786703</v>
+        <v>773.0769737594575</v>
       </c>
       <c r="R25" t="n">
-        <v>789.063919786703</v>
+        <v>635.6640030619366</v>
       </c>
       <c r="S25" t="n">
-        <v>789.063919786703</v>
+        <v>570.6087014331451</v>
       </c>
       <c r="T25" t="n">
-        <v>778.7664778869505</v>
+        <v>560.3112595333927</v>
       </c>
       <c r="U25" t="n">
-        <v>713.3217835952574</v>
+        <v>494.8665652416996</v>
       </c>
       <c r="V25" t="n">
-        <v>674.3173351565247</v>
+        <v>455.8621168029668</v>
       </c>
       <c r="W25" t="n">
-        <v>609.8917896767684</v>
+        <v>391.4365713232105</v>
       </c>
       <c r="X25" t="n">
-        <v>600.3701815749888</v>
+        <v>381.9149632214309</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.4417342689936</v>
+        <v>381.6106604165525</v>
       </c>
     </row>
     <row r="26">
@@ -6209,28 +6209,28 @@
         <v>1258.988776837336</v>
       </c>
       <c r="E26" t="n">
-        <v>966.5984620063946</v>
+        <v>966.598462006395</v>
       </c>
       <c r="F26" t="n">
-        <v>654.8426763795168</v>
+        <v>654.8426763795175</v>
       </c>
       <c r="G26" t="n">
-        <v>341.7344581784714</v>
+        <v>341.734458178472</v>
       </c>
       <c r="H26" t="n">
         <v>117.4570592986184</v>
       </c>
       <c r="I26" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253061</v>
       </c>
       <c r="J26" t="n">
-        <v>292.4781287039731</v>
+        <v>192.120392201774</v>
       </c>
       <c r="K26" t="n">
-        <v>707.8249656899998</v>
+        <v>607.4672291878007</v>
       </c>
       <c r="L26" t="n">
-        <v>1248.924541483091</v>
+        <v>1148.566804980892</v>
       </c>
       <c r="M26" t="n">
         <v>1745.48441791589</v>
@@ -6245,31 +6245,31 @@
         <v>3246.799463365294</v>
       </c>
       <c r="Q26" t="n">
-        <v>3460.553307868773</v>
+        <v>3505.131767544159</v>
       </c>
       <c r="R26" t="n">
-        <v>3509.03854962653</v>
+        <v>3509.038549626531</v>
       </c>
       <c r="S26" t="n">
-        <v>3437.88575760419</v>
+        <v>3437.885757604191</v>
       </c>
       <c r="T26" t="n">
-        <v>3318.550306664297</v>
+        <v>3318.550306664298</v>
       </c>
       <c r="U26" t="n">
-        <v>3166.108404503788</v>
+        <v>3166.108404503789</v>
       </c>
       <c r="V26" t="n">
-        <v>2931.524535462681</v>
+        <v>2931.524535462682</v>
       </c>
       <c r="W26" t="n">
-        <v>2671.385010383234</v>
+        <v>2671.385010383235</v>
       </c>
       <c r="X26" t="n">
-        <v>2391.750274967679</v>
+        <v>2391.75027496768</v>
       </c>
       <c r="Y26" t="n">
-        <v>2100.603824606469</v>
+        <v>2100.60382460647</v>
       </c>
     </row>
     <row r="27">
@@ -6294,13 +6294,13 @@
         <v>352.7462159391599</v>
       </c>
       <c r="G27" t="n">
-        <v>224.3389386372381</v>
+        <v>224.3389386372382</v>
       </c>
       <c r="H27" t="n">
         <v>127.50341596418</v>
       </c>
       <c r="I27" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253061</v>
       </c>
       <c r="J27" t="n">
         <v>160.1794808183511</v>
@@ -6309,13 +6309,13 @@
         <v>440.5082296901253</v>
       </c>
       <c r="L27" t="n">
-        <v>874.6883036242641</v>
+        <v>874.6883036242642</v>
       </c>
       <c r="M27" t="n">
-        <v>926.6887717745585</v>
+        <v>1439.492485852754</v>
       </c>
       <c r="N27" t="n">
-        <v>1519.836543086607</v>
+        <v>1986.942641447002</v>
       </c>
       <c r="O27" t="n">
         <v>1986.942641447002</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>442.3236065373155</v>
+        <v>442.3236065373154</v>
       </c>
       <c r="C28" t="n">
-        <v>375.1030420619476</v>
+        <v>375.1030420619475</v>
       </c>
       <c r="D28" t="n">
         <v>324.4265539526621</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8129447769328</v>
+        <v>274.8129447769327</v>
       </c>
       <c r="F28" t="n">
-        <v>224.7276948656617</v>
+        <v>224.7276948656616</v>
       </c>
       <c r="G28" t="n">
-        <v>158.4726535964415</v>
+        <v>158.4726535964414</v>
       </c>
       <c r="H28" t="n">
-        <v>103.8897557057442</v>
+        <v>103.889755705744</v>
       </c>
       <c r="I28" t="n">
-        <v>70.1807709925306</v>
+        <v>70.18077099253061</v>
       </c>
       <c r="J28" t="n">
         <v>130.3371910802957</v>
       </c>
       <c r="K28" t="n">
-        <v>294.9645143651711</v>
+        <v>294.9645143651712</v>
       </c>
       <c r="L28" t="n">
-        <v>535.1704833089435</v>
+        <v>535.1704833089436</v>
       </c>
       <c r="M28" t="n">
         <v>794.8960198051607</v>
@@ -6412,7 +6412,7 @@
         <v>1428.494316814693</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.861423975048</v>
+        <v>1298.861423975047</v>
       </c>
       <c r="U28" t="n">
         <v>1114.081278743462</v>
@@ -6421,10 +6421,10 @@
         <v>955.7413793648359</v>
       </c>
       <c r="W28" t="n">
-        <v>771.9803829451869</v>
+        <v>771.980382945187</v>
       </c>
       <c r="X28" t="n">
-        <v>643.1233239035145</v>
+        <v>643.1233239035146</v>
       </c>
       <c r="Y28" t="n">
         <v>523.4835701587434</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1808.955690151402</v>
+        <v>1808.955690151403</v>
       </c>
       <c r="C29" t="n">
         <v>1529.417336547162</v>
@@ -6446,13 +6446,13 @@
         <v>1258.988776837337</v>
       </c>
       <c r="E29" t="n">
-        <v>966.5984620063956</v>
+        <v>966.5984620063959</v>
       </c>
       <c r="F29" t="n">
-        <v>654.8426763795178</v>
+        <v>654.8426763795183</v>
       </c>
       <c r="G29" t="n">
-        <v>341.7344581784716</v>
+        <v>341.7344581784723</v>
       </c>
       <c r="H29" t="n">
         <v>117.4570592986184</v>
@@ -6464,46 +6464,46 @@
         <v>292.4781287039731</v>
       </c>
       <c r="K29" t="n">
-        <v>663.2465060146142</v>
+        <v>707.8249656899998</v>
       </c>
       <c r="L29" t="n">
-        <v>1103.988345305506</v>
+        <v>1248.924541483091</v>
       </c>
       <c r="M29" t="n">
-        <v>1700.905958240505</v>
+        <v>1745.48441791589</v>
       </c>
       <c r="N29" t="n">
         <v>2284.587600719316</v>
       </c>
       <c r="O29" t="n">
-        <v>2789.091406861131</v>
+        <v>2789.091406861132</v>
       </c>
       <c r="P29" t="n">
-        <v>3202.221003689908</v>
+        <v>3202.221003689909</v>
       </c>
       <c r="Q29" t="n">
         <v>3460.553307868774</v>
       </c>
       <c r="R29" t="n">
-        <v>3509.03854962653</v>
+        <v>3509.038549626531</v>
       </c>
       <c r="S29" t="n">
         <v>3437.885757604191</v>
       </c>
       <c r="T29" t="n">
-        <v>3318.550306664298</v>
+        <v>3318.550306664299</v>
       </c>
       <c r="U29" t="n">
-        <v>3166.108404503789</v>
+        <v>3166.10840450379</v>
       </c>
       <c r="V29" t="n">
-        <v>2931.524535462682</v>
+        <v>2931.524535462683</v>
       </c>
       <c r="W29" t="n">
-        <v>2671.385010383235</v>
+        <v>2671.385010383236</v>
       </c>
       <c r="X29" t="n">
-        <v>2391.75027496768</v>
+        <v>2391.750274967681</v>
       </c>
       <c r="Y29" t="n">
         <v>2100.60382460647</v>
@@ -6528,7 +6528,7 @@
         <v>487.4400139892856</v>
       </c>
       <c r="F30" t="n">
-        <v>352.7462159391599</v>
+        <v>352.74621593916</v>
       </c>
       <c r="G30" t="n">
         <v>224.3389386372382</v>
@@ -6540,25 +6540,25 @@
         <v>70.18077099253061</v>
       </c>
       <c r="J30" t="n">
-        <v>70.18077099253061</v>
+        <v>160.1794808183511</v>
       </c>
       <c r="K30" t="n">
-        <v>125.6639625866594</v>
+        <v>440.5082296901253</v>
       </c>
       <c r="L30" t="n">
-        <v>559.8440365207982</v>
+        <v>874.6883036242642</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.648218749288</v>
+        <v>1439.492485852754</v>
       </c>
       <c r="N30" t="n">
-        <v>1717.795990061337</v>
+        <v>1519.836543086607</v>
       </c>
       <c r="O30" t="n">
-        <v>2184.902088421732</v>
+        <v>1986.942641447002</v>
       </c>
       <c r="P30" t="n">
-        <v>2547.116794969988</v>
+        <v>2349.157347995259</v>
       </c>
       <c r="Q30" t="n">
         <v>2547.116794969988</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>442.323606537316</v>
+        <v>442.3236065373156</v>
       </c>
       <c r="C31" t="n">
-        <v>375.1030420619481</v>
+        <v>375.1030420619477</v>
       </c>
       <c r="D31" t="n">
-        <v>324.4265539526626</v>
+        <v>324.4265539526623</v>
       </c>
       <c r="E31" t="n">
-        <v>274.8129447769333</v>
+        <v>274.8129447769329</v>
       </c>
       <c r="F31" t="n">
-        <v>224.7276948656623</v>
+        <v>224.7276948656618</v>
       </c>
       <c r="G31" t="n">
-        <v>158.4726535964421</v>
+        <v>158.4726535964416</v>
       </c>
       <c r="H31" t="n">
         <v>103.8897557057442</v>
@@ -6622,16 +6622,16 @@
         <v>130.3371910802957</v>
       </c>
       <c r="K31" t="n">
-        <v>294.9645143651711</v>
+        <v>294.9645143651718</v>
       </c>
       <c r="L31" t="n">
-        <v>535.1704833089435</v>
+        <v>535.1704833089442</v>
       </c>
       <c r="M31" t="n">
-        <v>794.8960198051608</v>
+        <v>794.8960198051614</v>
       </c>
       <c r="N31" t="n">
-        <v>1054.066603691327</v>
+        <v>1054.066603691328</v>
       </c>
       <c r="O31" t="n">
         <v>1290.19515603533</v>
@@ -6655,16 +6655,16 @@
         <v>1114.081278743462</v>
       </c>
       <c r="V31" t="n">
-        <v>955.7413793648367</v>
+        <v>955.7413793648363</v>
       </c>
       <c r="W31" t="n">
-        <v>771.9803829451877</v>
+        <v>771.9803829451872</v>
       </c>
       <c r="X31" t="n">
-        <v>643.1233239035153</v>
+        <v>643.1233239035148</v>
       </c>
       <c r="Y31" t="n">
-        <v>523.483570158744</v>
+        <v>523.4835701587436</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6677,37 @@
         <v>1808.955690151402</v>
       </c>
       <c r="C32" t="n">
-        <v>1529.417336547161</v>
+        <v>1529.417336547162</v>
       </c>
       <c r="D32" t="n">
-        <v>1258.988776837336</v>
+        <v>1258.988776837337</v>
       </c>
       <c r="E32" t="n">
-        <v>966.5984620063946</v>
+        <v>966.5984620063956</v>
       </c>
       <c r="F32" t="n">
-        <v>654.8426763795167</v>
+        <v>654.8426763795176</v>
       </c>
       <c r="G32" t="n">
-        <v>341.7344581784719</v>
+        <v>341.7344581784716</v>
       </c>
       <c r="H32" t="n">
-        <v>117.4570592986185</v>
+        <v>117.4570592986184</v>
       </c>
       <c r="I32" t="n">
         <v>70.18077099253061</v>
       </c>
       <c r="J32" t="n">
-        <v>292.478128703973</v>
+        <v>192.120392201774</v>
       </c>
       <c r="K32" t="n">
-        <v>707.8249656899997</v>
+        <v>607.4672291878007</v>
       </c>
       <c r="L32" t="n">
-        <v>1248.924541483091</v>
+        <v>1103.988345305507</v>
       </c>
       <c r="M32" t="n">
-        <v>1745.48441791589</v>
+        <v>1700.905958240505</v>
       </c>
       <c r="N32" t="n">
         <v>2284.587600719316</v>
@@ -6716,34 +6716,34 @@
         <v>2789.091406861132</v>
       </c>
       <c r="P32" t="n">
-        <v>3202.221003689908</v>
+        <v>3202.221003689909</v>
       </c>
       <c r="Q32" t="n">
         <v>3460.553307868774</v>
       </c>
       <c r="R32" t="n">
-        <v>3509.03854962653</v>
+        <v>3509.038549626531</v>
       </c>
       <c r="S32" t="n">
-        <v>3437.88575760419</v>
+        <v>3437.885757604191</v>
       </c>
       <c r="T32" t="n">
-        <v>3318.550306664297</v>
+        <v>3318.550306664298</v>
       </c>
       <c r="U32" t="n">
-        <v>3166.108404503788</v>
+        <v>3166.108404503789</v>
       </c>
       <c r="V32" t="n">
-        <v>2931.524535462681</v>
+        <v>2931.524535462682</v>
       </c>
       <c r="W32" t="n">
-        <v>2671.385010383234</v>
+        <v>2671.385010383235</v>
       </c>
       <c r="X32" t="n">
         <v>2391.75027496768</v>
       </c>
       <c r="Y32" t="n">
-        <v>2100.603824606469</v>
+        <v>2100.60382460647</v>
       </c>
     </row>
     <row r="33">
@@ -6765,7 +6765,7 @@
         <v>487.4400139892856</v>
       </c>
       <c r="F33" t="n">
-        <v>352.7462159391599</v>
+        <v>352.74621593916</v>
       </c>
       <c r="G33" t="n">
         <v>224.3389386372382</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>442.3236065373163</v>
+        <v>442.3236065373153</v>
       </c>
       <c r="C34" t="n">
-        <v>375.1030420619483</v>
+        <v>375.1030420619474</v>
       </c>
       <c r="D34" t="n">
-        <v>324.4265539526627</v>
+        <v>324.4265539526619</v>
       </c>
       <c r="E34" t="n">
-        <v>274.8129447769333</v>
+        <v>274.8129447769326</v>
       </c>
       <c r="F34" t="n">
-        <v>224.7276948656621</v>
+        <v>224.7276948656616</v>
       </c>
       <c r="G34" t="n">
-        <v>158.4726535964418</v>
+        <v>158.4726535964414</v>
       </c>
       <c r="H34" t="n">
-        <v>103.8897557057443</v>
+        <v>103.8897557057441</v>
       </c>
       <c r="I34" t="n">
         <v>70.18077099253061</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3371910802956</v>
+        <v>130.3371910802957</v>
       </c>
       <c r="K34" t="n">
-        <v>294.9645143651709</v>
+        <v>294.9645143651711</v>
       </c>
       <c r="L34" t="n">
-        <v>535.1704833089432</v>
+        <v>535.1704833089435</v>
       </c>
       <c r="M34" t="n">
-        <v>794.8960198051602</v>
+        <v>794.8960198051607</v>
       </c>
       <c r="N34" t="n">
-        <v>1054.066603691326</v>
+        <v>1054.066603691327</v>
       </c>
       <c r="O34" t="n">
-        <v>1290.195156035332</v>
+        <v>1290.195156035329</v>
       </c>
       <c r="P34" t="n">
-        <v>1485.44410465393</v>
+        <v>1485.444104653928</v>
       </c>
       <c r="Q34" t="n">
-        <v>1570.133035354826</v>
+        <v>1570.133035354824</v>
       </c>
       <c r="R34" t="n">
-        <v>1535.115469720257</v>
+        <v>1535.115469720255</v>
       </c>
       <c r="S34" t="n">
-        <v>1428.494316814694</v>
+        <v>1428.494316814693</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.861423975049</v>
+        <v>1298.861423975048</v>
       </c>
       <c r="U34" t="n">
-        <v>1114.081278743463</v>
+        <v>1114.081278743462</v>
       </c>
       <c r="V34" t="n">
-        <v>955.7413793648375</v>
+        <v>955.7413793648359</v>
       </c>
       <c r="W34" t="n">
-        <v>771.9803829451882</v>
+        <v>771.9803829451869</v>
       </c>
       <c r="X34" t="n">
-        <v>643.1233239035157</v>
+        <v>643.1233239035143</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.4835701587444</v>
+        <v>523.4835701587433</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1135.850896898431</v>
       </c>
       <c r="D35" t="n">
-        <v>930.7541562136385</v>
+        <v>930.7541562136387</v>
       </c>
       <c r="E35" t="n">
-        <v>703.6956604077293</v>
+        <v>703.6956604077297</v>
       </c>
       <c r="F35" t="n">
-        <v>457.2716938058841</v>
+        <v>457.2716938058843</v>
       </c>
       <c r="G35" t="n">
         <v>209.495294629871</v>
@@ -6935,25 +6935,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J35" t="n">
-        <v>50.54971477505016</v>
+        <v>172.4893359842935</v>
       </c>
       <c r="K35" t="n">
-        <v>365.5388152588779</v>
+        <v>487.4784364681212</v>
       </c>
       <c r="L35" t="n">
-        <v>806.28065454977</v>
+        <v>672.7094587002366</v>
       </c>
       <c r="M35" t="n">
-        <v>1302.840530982569</v>
+        <v>1169.269335133036</v>
       </c>
       <c r="N35" t="n">
-        <v>1786.164436959181</v>
+        <v>1652.593241109647</v>
       </c>
       <c r="O35" t="n">
-        <v>2190.310506598797</v>
+        <v>2056.739310749264</v>
       </c>
       <c r="P35" t="n">
-        <v>2503.082366925375</v>
+        <v>2369.511171075842</v>
       </c>
       <c r="Q35" t="n">
         <v>2527.485738752508</v>
@@ -6962,7 +6962,7 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S35" t="n">
-        <v>2521.6647657552</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T35" t="n">
         <v>2467.66113384034</v>
@@ -7017,22 +7017,22 @@
         <v>140.5484246008706</v>
       </c>
       <c r="K36" t="n">
-        <v>420.8771734726449</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="L36" t="n">
-        <v>855.0572474067837</v>
+        <v>574.7284985350095</v>
       </c>
       <c r="M36" t="n">
-        <v>1419.861429635273</v>
+        <v>1139.532680763499</v>
       </c>
       <c r="N36" t="n">
-        <v>1500.205486869127</v>
+        <v>1732.680452075548</v>
       </c>
       <c r="O36" t="n">
         <v>1967.311585229522</v>
       </c>
       <c r="P36" t="n">
-        <v>2329.526291777778</v>
+        <v>2329.526291777779</v>
       </c>
       <c r="Q36" t="n">
         <v>2527.485738752508</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.36168246957341</v>
+        <v>53.36168246957336</v>
       </c>
       <c r="C37" t="n">
-        <v>51.47293701923793</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="D37" t="n">
-        <v>51.47293701923793</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="E37" t="n">
-        <v>51.47293701923793</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="F37" t="n">
-        <v>51.47293701923793</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="G37" t="n">
         <v>50.54971477505016</v>
@@ -7099,7 +7099,7 @@
         <v>114.8193015577265</v>
       </c>
       <c r="L37" t="n">
-        <v>254.6675339992998</v>
+        <v>254.6675339992997</v>
       </c>
       <c r="M37" t="n">
         <v>414.0353339933179</v>
@@ -7117,28 +7117,28 @@
         <v>803.5102093354885</v>
       </c>
       <c r="R37" t="n">
-        <v>666.0972386379676</v>
+        <v>803.5102093354885</v>
       </c>
       <c r="S37" t="n">
-        <v>582.2096595717239</v>
+        <v>762.2208754549584</v>
       </c>
       <c r="T37" t="n">
-        <v>517.908585757111</v>
+        <v>697.9198016403457</v>
       </c>
       <c r="U37" t="n">
-        <v>398.4602595505576</v>
+        <v>566.1874836385416</v>
       </c>
       <c r="V37" t="n">
-        <v>305.4521791969644</v>
+        <v>473.1794032849484</v>
       </c>
       <c r="W37" t="n">
-        <v>187.0230018023477</v>
+        <v>187.0230018023476</v>
       </c>
       <c r="X37" t="n">
-        <v>123.4977617857077</v>
+        <v>123.4977617857076</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.189827065969</v>
+        <v>69.18982706596893</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1350.05743147764</v>
+        <v>1350.057431477639</v>
       </c>
       <c r="C38" t="n">
         <v>1135.850896898431</v>
       </c>
       <c r="D38" t="n">
-        <v>930.7541562136389</v>
+        <v>930.7541562136387</v>
       </c>
       <c r="E38" t="n">
-        <v>703.6956604077301</v>
+        <v>703.6956604077297</v>
       </c>
       <c r="F38" t="n">
-        <v>457.2716938058848</v>
+        <v>457.2716938058843</v>
       </c>
       <c r="G38" t="n">
         <v>209.495294629871</v>
@@ -7172,25 +7172,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J38" t="n">
-        <v>50.54971477505016</v>
+        <v>172.4893359842935</v>
       </c>
       <c r="K38" t="n">
-        <v>365.5388152588779</v>
+        <v>487.4784364681212</v>
       </c>
       <c r="L38" t="n">
-        <v>806.28065454977</v>
+        <v>928.2202757590132</v>
       </c>
       <c r="M38" t="n">
-        <v>1302.840530982569</v>
+        <v>1169.269335133036</v>
       </c>
       <c r="N38" t="n">
-        <v>1786.164436959181</v>
+        <v>1652.593241109647</v>
       </c>
       <c r="O38" t="n">
-        <v>2190.310506598797</v>
+        <v>2056.739310749264</v>
       </c>
       <c r="P38" t="n">
-        <v>2503.082366925375</v>
+        <v>2369.511171075842</v>
       </c>
       <c r="Q38" t="n">
         <v>2527.485738752508</v>
@@ -7199,7 +7199,7 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S38" t="n">
-        <v>2521.6647657552</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T38" t="n">
         <v>2467.66113384034</v>
@@ -7242,7 +7242,7 @@
         <v>333.1151597216798</v>
       </c>
       <c r="G39" t="n">
-        <v>204.7078824197577</v>
+        <v>204.7078824197579</v>
       </c>
       <c r="H39" t="n">
         <v>107.8723597466995</v>
@@ -7260,7 +7260,7 @@
         <v>855.0572474067837</v>
       </c>
       <c r="M39" t="n">
-        <v>1419.861429635273</v>
+        <v>907.0577155570786</v>
       </c>
       <c r="N39" t="n">
         <v>1500.205486869127</v>
@@ -7269,13 +7269,13 @@
         <v>1967.311585229522</v>
       </c>
       <c r="P39" t="n">
-        <v>2329.526291777778</v>
+        <v>2329.526291777779</v>
       </c>
       <c r="Q39" t="n">
         <v>2527.485738752508</v>
       </c>
       <c r="R39" t="n">
-        <v>2487.645453112273</v>
+        <v>2487.645453112272</v>
       </c>
       <c r="S39" t="n">
         <v>2340.812536422166</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>233.3728983528085</v>
+        <v>217.3859523255628</v>
       </c>
       <c r="C40" t="n">
-        <v>219.2001611072222</v>
+        <v>215.4972068752273</v>
       </c>
       <c r="D40" t="n">
-        <v>219.2001611072222</v>
+        <v>203.4819512579191</v>
       </c>
       <c r="E40" t="n">
-        <v>219.2001611072222</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="F40" t="n">
-        <v>219.2001611072222</v>
+        <v>51.47293701923791</v>
       </c>
       <c r="G40" t="n">
         <v>50.54971477505016</v>
@@ -7336,7 +7336,7 @@
         <v>114.8193015577265</v>
       </c>
       <c r="L40" t="n">
-        <v>254.6675339992998</v>
+        <v>254.6675339992997</v>
       </c>
       <c r="M40" t="n">
         <v>414.0353339933179</v>
@@ -7351,31 +7351,31 @@
         <v>803.5102093354885</v>
       </c>
       <c r="Q40" t="n">
-        <v>803.5102093354885</v>
+        <v>787.523263308243</v>
       </c>
       <c r="R40" t="n">
-        <v>803.5102093354885</v>
+        <v>787.523263308243</v>
       </c>
       <c r="S40" t="n">
-        <v>762.2208754549584</v>
+        <v>746.233929427713</v>
       </c>
       <c r="T40" t="n">
-        <v>697.9198016403457</v>
+        <v>681.9328556131002</v>
       </c>
       <c r="U40" t="n">
-        <v>578.4714754337923</v>
+        <v>562.4845294065467</v>
       </c>
       <c r="V40" t="n">
-        <v>485.4633950801992</v>
+        <v>469.4764490529536</v>
       </c>
       <c r="W40" t="n">
-        <v>367.0342176855826</v>
+        <v>351.047271658337</v>
       </c>
       <c r="X40" t="n">
-        <v>303.5089776689426</v>
+        <v>287.522031641697</v>
       </c>
       <c r="Y40" t="n">
-        <v>249.201042949204</v>
+        <v>233.2140969219583</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>1350.057431477639</v>
       </c>
       <c r="C41" t="n">
-        <v>1135.85089689843</v>
+        <v>1135.850896898431</v>
       </c>
       <c r="D41" t="n">
         <v>930.7541562136382</v>
       </c>
       <c r="E41" t="n">
-        <v>703.6956604077293</v>
+        <v>703.6956604077297</v>
       </c>
       <c r="F41" t="n">
-        <v>457.2716938058838</v>
+        <v>457.2716938058845</v>
       </c>
       <c r="G41" t="n">
-        <v>209.4952946298711</v>
+        <v>209.495294629871</v>
       </c>
       <c r="H41" t="n">
         <v>50.54971477505016</v>
@@ -7409,13 +7409,13 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J41" t="n">
-        <v>172.4893359842936</v>
+        <v>172.4893359842935</v>
       </c>
       <c r="K41" t="n">
-        <v>487.4784364681213</v>
+        <v>487.4784364681212</v>
       </c>
       <c r="L41" t="n">
-        <v>928.2202757590135</v>
+        <v>928.2202757590132</v>
       </c>
       <c r="M41" t="n">
         <v>1169.269335133036</v>
@@ -7436,7 +7436,7 @@
         <v>2527.485738752508</v>
       </c>
       <c r="S41" t="n">
-        <v>2521.6647657552</v>
+        <v>2521.664765755201</v>
       </c>
       <c r="T41" t="n">
         <v>2467.66113384034</v>
@@ -7451,10 +7451,10 @@
         <v>2016.491294634374</v>
       </c>
       <c r="X41" t="n">
-        <v>1802.188378243851</v>
+        <v>1802.188378243852</v>
       </c>
       <c r="Y41" t="n">
-        <v>1576.373746907673</v>
+        <v>1576.373746907674</v>
       </c>
     </row>
     <row r="42">
@@ -7488,31 +7488,31 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J42" t="n">
-        <v>50.54971477505016</v>
+        <v>140.5484246008706</v>
       </c>
       <c r="K42" t="n">
-        <v>330.8784636468244</v>
+        <v>420.8771734726449</v>
       </c>
       <c r="L42" t="n">
-        <v>765.0585375809633</v>
+        <v>855.0572474067837</v>
       </c>
       <c r="M42" t="n">
-        <v>907.0577155570786</v>
+        <v>1269.272422105334</v>
       </c>
       <c r="N42" t="n">
-        <v>1500.205486869127</v>
+        <v>1862.420193417383</v>
       </c>
       <c r="O42" t="n">
-        <v>1967.311585229522</v>
+        <v>2329.526291777778</v>
       </c>
       <c r="P42" t="n">
-        <v>2329.526291777779</v>
+        <v>2329.526291777778</v>
       </c>
       <c r="Q42" t="n">
         <v>2527.485738752508</v>
       </c>
       <c r="R42" t="n">
-        <v>2487.645453112273</v>
+        <v>2487.645453112272</v>
       </c>
       <c r="S42" t="n">
         <v>2340.812536422166</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.36168246957353</v>
+        <v>53.36168246957342</v>
       </c>
       <c r="C43" t="n">
-        <v>51.472937019238</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="D43" t="n">
-        <v>51.472937019238</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="E43" t="n">
-        <v>51.472937019238</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="F43" t="n">
-        <v>51.472937019238</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="G43" t="n">
         <v>50.54971477505016</v>
@@ -7573,7 +7573,7 @@
         <v>114.8193015577265</v>
       </c>
       <c r="L43" t="n">
-        <v>254.6675339992998</v>
+        <v>254.6675339992997</v>
       </c>
       <c r="M43" t="n">
         <v>414.0353339933179</v>
@@ -7588,31 +7588,31 @@
         <v>803.5102093354885</v>
       </c>
       <c r="Q43" t="n">
-        <v>803.5102093354885</v>
+        <v>787.523263308243</v>
       </c>
       <c r="R43" t="n">
-        <v>803.5102093354885</v>
+        <v>787.523263308243</v>
       </c>
       <c r="S43" t="n">
-        <v>594.4936513669742</v>
+        <v>746.233929427713</v>
       </c>
       <c r="T43" t="n">
-        <v>530.1925775523613</v>
+        <v>681.9328556131002</v>
       </c>
       <c r="U43" t="n">
-        <v>410.7442513458078</v>
+        <v>398.4602595505576</v>
       </c>
       <c r="V43" t="n">
-        <v>317.7361709922145</v>
+        <v>305.4521791969644</v>
       </c>
       <c r="W43" t="n">
-        <v>187.023001802348</v>
+        <v>187.0230018023477</v>
       </c>
       <c r="X43" t="n">
-        <v>123.4977617857079</v>
+        <v>123.4977617857077</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.18982706596918</v>
+        <v>69.18982706596901</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1350.057431477639</v>
+        <v>1350.05743147764</v>
       </c>
       <c r="C44" t="n">
-        <v>1135.850896898431</v>
+        <v>1135.850896898432</v>
       </c>
       <c r="D44" t="n">
-        <v>930.7541562136387</v>
+        <v>930.7541562136394</v>
       </c>
       <c r="E44" t="n">
-        <v>703.6956604077297</v>
+        <v>703.6956604077302</v>
       </c>
       <c r="F44" t="n">
-        <v>457.2716938058843</v>
+        <v>457.2716938058848</v>
       </c>
       <c r="G44" t="n">
         <v>209.495294629871</v>
@@ -7646,25 +7646,25 @@
         <v>50.54971477505016</v>
       </c>
       <c r="J44" t="n">
-        <v>172.4893359842936</v>
+        <v>172.4893359842935</v>
       </c>
       <c r="K44" t="n">
-        <v>487.4784364681213</v>
+        <v>487.4784364681212</v>
       </c>
       <c r="L44" t="n">
-        <v>928.2202757590135</v>
+        <v>928.2202757590132</v>
       </c>
       <c r="M44" t="n">
-        <v>1424.780152191813</v>
+        <v>1424.780152191812</v>
       </c>
       <c r="N44" t="n">
         <v>1908.104058168424</v>
       </c>
       <c r="O44" t="n">
-        <v>2312.250127808041</v>
+        <v>2056.739310749264</v>
       </c>
       <c r="P44" t="n">
-        <v>2527.485738752508</v>
+        <v>2369.511171075842</v>
       </c>
       <c r="Q44" t="n">
         <v>2527.485738752508</v>
@@ -7679,19 +7679,19 @@
         <v>2467.66113384034</v>
       </c>
       <c r="U44" t="n">
-        <v>2380.551050704863</v>
+        <v>2380.551050704864</v>
       </c>
       <c r="V44" t="n">
-        <v>2211.299000688789</v>
+        <v>2211.29900068879</v>
       </c>
       <c r="W44" t="n">
-        <v>2016.491294634374</v>
+        <v>2016.491294634375</v>
       </c>
       <c r="X44" t="n">
-        <v>1802.188378243852</v>
+        <v>1802.188378243853</v>
       </c>
       <c r="Y44" t="n">
-        <v>1576.373746907674</v>
+        <v>1576.373746907675</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.3792774837679</v>
+        <v>915.3792774837672</v>
       </c>
       <c r="C45" t="n">
-        <v>753.6756047247227</v>
+        <v>753.6756047247219</v>
       </c>
       <c r="D45" t="n">
-        <v>614.8369677149349</v>
+        <v>614.836967714934</v>
       </c>
       <c r="E45" t="n">
-        <v>467.808957771806</v>
+        <v>467.8089577718051</v>
       </c>
       <c r="F45" t="n">
-        <v>333.1151597216803</v>
+        <v>333.1151597216795</v>
       </c>
       <c r="G45" t="n">
-        <v>204.7078824197583</v>
+        <v>204.7078824197577</v>
       </c>
       <c r="H45" t="n">
         <v>107.8723597466995</v>
@@ -7734,10 +7734,10 @@
         <v>855.0572474067837</v>
       </c>
       <c r="M45" t="n">
-        <v>1419.861429635273</v>
+        <v>907.0577155570786</v>
       </c>
       <c r="N45" t="n">
-        <v>1967.311585229522</v>
+        <v>1500.205486869127</v>
       </c>
       <c r="O45" t="n">
         <v>1967.311585229522</v>
@@ -7752,25 +7752,25 @@
         <v>2487.645453112273</v>
       </c>
       <c r="S45" t="n">
-        <v>2340.812536422167</v>
+        <v>2340.812536422166</v>
       </c>
       <c r="T45" t="n">
         <v>2153.422185386991</v>
       </c>
       <c r="U45" t="n">
-        <v>1934.948526056012</v>
+        <v>1934.948526056011</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.552903504346</v>
+        <v>1706.552903504345</v>
       </c>
       <c r="W45" t="n">
         <v>1465.237034737655</v>
       </c>
       <c r="X45" t="n">
-        <v>1267.32004661545</v>
+        <v>1267.320046615449</v>
       </c>
       <c r="Y45" t="n">
-        <v>1074.798720265029</v>
+        <v>1074.798720265028</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>210.3399854232225</v>
+        <v>53.36168246957342</v>
       </c>
       <c r="C46" t="n">
-        <v>208.4512399728871</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="D46" t="n">
-        <v>208.4512399728871</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="E46" t="n">
-        <v>208.4512399728871</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="F46" t="n">
-        <v>208.4512399728871</v>
+        <v>51.47293701923794</v>
       </c>
       <c r="G46" t="n">
-        <v>207.5280177286994</v>
+        <v>50.54971477505016</v>
       </c>
       <c r="H46" t="n">
         <v>50.54971477505016</v>
@@ -7810,7 +7810,7 @@
         <v>114.8193015577265</v>
       </c>
       <c r="L46" t="n">
-        <v>254.6675339992998</v>
+        <v>254.6675339992997</v>
       </c>
       <c r="M46" t="n">
         <v>414.0353339933179</v>
@@ -7825,31 +7825,31 @@
         <v>803.5102093354885</v>
       </c>
       <c r="Q46" t="n">
-        <v>803.5102093354885</v>
+        <v>787.523263308243</v>
       </c>
       <c r="R46" t="n">
-        <v>803.5102093354885</v>
+        <v>787.523263308243</v>
       </c>
       <c r="S46" t="n">
-        <v>762.2208754549584</v>
+        <v>582.2096595717239</v>
       </c>
       <c r="T46" t="n">
-        <v>674.88688871076</v>
+        <v>517.908585757111</v>
       </c>
       <c r="U46" t="n">
-        <v>555.4385625042065</v>
+        <v>398.4602595505576</v>
       </c>
       <c r="V46" t="n">
-        <v>462.4304821506133</v>
+        <v>305.4521791969644</v>
       </c>
       <c r="W46" t="n">
-        <v>344.0013047559967</v>
+        <v>187.0230018023477</v>
       </c>
       <c r="X46" t="n">
-        <v>280.4760647393567</v>
+        <v>123.4977617857077</v>
       </c>
       <c r="Y46" t="n">
-        <v>226.1681300196181</v>
+        <v>69.18982706596901</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>96.65426516890462</v>
       </c>
       <c r="K11" t="n">
-        <v>103.2182277729912</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>82.791960780279</v>
+        <v>534.0847761085865</v>
       </c>
       <c r="N11" t="n">
-        <v>415.1873370561426</v>
+        <v>531.6378514309458</v>
       </c>
       <c r="O11" t="n">
-        <v>495.0402356415689</v>
+        <v>86.81188247023896</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>223.394140456886</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>116.439217477405</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8772,13 +8772,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>439.2704920836097</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>34.90730789672757</v>
       </c>
       <c r="N12" t="n">
-        <v>475.2987390334636</v>
+        <v>432.4767822225764</v>
       </c>
       <c r="O12" t="n">
         <v>40.19667328157156</v>
@@ -8927,22 +8927,22 @@
         <v>96.65426516890462</v>
       </c>
       <c r="K14" t="n">
-        <v>103.2182277729912</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>249.0830513407381</v>
+        <v>534.0847761085865</v>
       </c>
       <c r="N14" t="n">
-        <v>531.6378514309458</v>
+        <v>244.3964901406226</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>102.4071485758794</v>
       </c>
       <c r="Q14" t="n">
         <v>116.439217477405</v>
@@ -9012,19 +9012,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>34.90730789672757</v>
+        <v>192.0443884340518</v>
       </c>
       <c r="N15" t="n">
-        <v>432.4767822225764</v>
+        <v>24.00592370515618</v>
       </c>
       <c r="O15" t="n">
-        <v>40.19667328157156</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>73.14143670839243</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>96.65426516890462</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>97.76580185407839</v>
       </c>
       <c r="M17" t="n">
-        <v>99.46345316426024</v>
+        <v>534.0847761085865</v>
       </c>
       <c r="N17" t="n">
-        <v>80.34503610263835</v>
+        <v>373.6590951550818</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9182,7 +9182,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>116.439217477405</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>73.0105582396825</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,13 +9249,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>34.90730789672757</v>
+        <v>82.99313878868921</v>
       </c>
       <c r="N18" t="n">
-        <v>24.00592370515618</v>
+        <v>475.2987390334636</v>
       </c>
       <c r="O18" t="n">
-        <v>448.6675317989918</v>
+        <v>40.19667328157156</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>96.65426516890462</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>103.2182277729912</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>507.6918063355902</v>
+        <v>534.0847761085865</v>
       </c>
       <c r="N20" t="n">
-        <v>80.34503610263835</v>
+        <v>531.6378514309458</v>
       </c>
       <c r="O20" t="n">
-        <v>86.81188247023896</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229274</v>
+        <v>133.3365958550791</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>116.439217477405</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9480,22 +9480,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062067</v>
       </c>
       <c r="L21" t="n">
-        <v>439.2704920836097</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>34.90730789672757</v>
+        <v>486.200123225035</v>
       </c>
       <c r="N21" t="n">
-        <v>24.00592370515618</v>
+        <v>178.9249449195277</v>
       </c>
       <c r="O21" t="n">
-        <v>491.4894886098789</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>48.12815827408355</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9641,13 +9641,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>97.76580185407839</v>
+        <v>108.3382559712595</v>
       </c>
       <c r="M23" t="n">
-        <v>93.36441489746005</v>
+        <v>534.0847761085864</v>
       </c>
       <c r="N23" t="n">
-        <v>531.6378514309458</v>
+        <v>80.3450361026383</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
@@ -9720,16 +9720,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>439.2704920836097</v>
+        <v>439.2704920836096</v>
       </c>
       <c r="M24" t="n">
-        <v>34.90730789672757</v>
+        <v>34.90730789672754</v>
       </c>
       <c r="N24" t="n">
-        <v>24.00592370515618</v>
+        <v>24.00592370515615</v>
       </c>
       <c r="O24" t="n">
-        <v>491.4894886098789</v>
+        <v>491.4894886098791</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9960,13 +9960,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>87.43303330106536</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>576.9858788508616</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>40.19667328157153</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
@@ -10188,10 +10188,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>73.0105582396825</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>116.688083593478</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>105.1615370726849</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.1414367083924</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>105.1615370726848</v>
+        <v>105.1615370726849</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>96.6542651689046</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
-        <v>542.9595789155856</v>
+        <v>284.8678445127808</v>
       </c>
       <c r="M35" t="n">
         <v>584.3675935406823</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.0890880098621</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10665,7 +10665,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>60.64445572062067</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,10 +10674,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>105.1615370726848</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>277.1978178815457</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>96.6542651689046</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>326.2758591378775</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>141.0890880098621</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10908,10 +10908,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>87.43303330106582</v>
       </c>
       <c r="N39" t="n">
-        <v>105.1615370726848</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11066,7 +11066,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>326.2758591378773</v>
+        <v>326.2758591378775</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
@@ -11136,7 +11136,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>73.0105582396825</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11145,7 +11145,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>178.3408210039148</v>
+        <v>453.3064742589</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11154,7 +11154,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>48.12815827408355</v>
       </c>
       <c r="Q42" t="n">
         <v>273.1004740566038</v>
@@ -11309,13 +11309,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>495.0402356415689</v>
+        <v>236.9485012387642</v>
       </c>
       <c r="P44" t="n">
-        <v>319.8168566005937</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>116.439217477405</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11382,13 +11382,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>87.43303330106582</v>
       </c>
       <c r="N45" t="n">
-        <v>576.985878850862</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>40.19667328157153</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>260.8850331288905</v>
       </c>
       <c r="C11" t="n">
-        <v>248.8963500865723</v>
+        <v>248.8963500865722</v>
       </c>
       <c r="D11" t="n">
-        <v>239.8776541311002</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>280.7916077889829</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>42.59464412049033</v>
       </c>
       <c r="T11" t="n">
-        <v>12.44395294167358</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.0708631572777</v>
       </c>
       <c r="V11" t="n">
-        <v>204.3914103690696</v>
+        <v>50.5657189481953</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>248.9917680797732</v>
+        <v>248.9917680797731</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>260.3883658759719</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>260.8850331288905</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>239.8776541311002</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>261.6197917010057</v>
+        <v>136.9464671534843</v>
       </c>
       <c r="F14" t="n">
-        <v>280.5121191162223</v>
+        <v>280.7916077889829</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>194.1880049094286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>42.59464412049033</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>90.29547644886772</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>204.3914103690696</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>229.6915098470265</v>
       </c>
       <c r="X14" t="n">
-        <v>248.9917680797732</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.864699438323067e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1189249.625640041</v>
+        <v>1189249.625640042</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>153175.3263014609</v>
       </c>
       <c r="C2" t="n">
-        <v>153175.3263014608</v>
+        <v>153175.3263014609</v>
       </c>
       <c r="D2" t="n">
         <v>153175.3263014609</v>
       </c>
       <c r="E2" t="n">
-        <v>133857.3596239536</v>
+        <v>133857.3596239534</v>
       </c>
       <c r="F2" t="n">
-        <v>133857.3596239535</v>
+        <v>133857.3596239534</v>
       </c>
       <c r="G2" t="n">
         <v>153524.8120988363</v>
       </c>
       <c r="H2" t="n">
+        <v>153524.8120988365</v>
+      </c>
+      <c r="I2" t="n">
+        <v>153524.8120988364</v>
+      </c>
+      <c r="J2" t="n">
+        <v>153524.8120988362</v>
+      </c>
+      <c r="K2" t="n">
         <v>153524.8120988363</v>
       </c>
-      <c r="I2" t="n">
-        <v>153524.8120988363</v>
-      </c>
-      <c r="J2" t="n">
-        <v>153524.8120988363</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>153524.8120988362</v>
       </c>
-      <c r="L2" t="n">
-        <v>153524.8120988364</v>
-      </c>
       <c r="M2" t="n">
-        <v>153524.8120988361</v>
+        <v>153524.8120988362</v>
       </c>
       <c r="N2" t="n">
-        <v>153524.8120988363</v>
+        <v>153524.8120988362</v>
       </c>
       <c r="O2" t="n">
         <v>153524.8120988362</v>
       </c>
       <c r="P2" t="n">
-        <v>153524.8120988361</v>
+        <v>153524.8120988362</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356901.2563746111</v>
+        <v>356901.2563746112</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>72236.38115909419</v>
+        <v>72236.38115909416</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72236.38115909409</v>
+        <v>72236.38115909419</v>
       </c>
       <c r="M3" t="n">
-        <v>103055.0537486388</v>
+        <v>103055.0537486387</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8860.779650763572</v>
+        <v>8860.779650763641</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26436,7 +26436,7 @@
         <v>348860.1176001109</v>
       </c>
       <c r="I4" t="n">
-        <v>348860.117600111</v>
+        <v>348860.1176001109</v>
       </c>
       <c r="J4" t="n">
         <v>338193.2769757741</v>
@@ -26451,13 +26451,13 @@
         <v>339446.9901772322</v>
       </c>
       <c r="N4" t="n">
-        <v>339446.9901772322</v>
+        <v>339446.9901772323</v>
       </c>
       <c r="O4" t="n">
         <v>339446.9901772322</v>
       </c>
       <c r="P4" t="n">
-        <v>339446.9901772323</v>
+        <v>339446.9901772322</v>
       </c>
     </row>
     <row r="5">
@@ -26482,31 +26482,31 @@
         <v>41524.90096894784</v>
       </c>
       <c r="G5" t="n">
-        <v>49115.95137852769</v>
+        <v>49115.9513785277</v>
       </c>
       <c r="H5" t="n">
-        <v>49115.95137852769</v>
+        <v>49115.9513785277</v>
       </c>
       <c r="I5" t="n">
-        <v>49115.95137852769</v>
+        <v>49115.95137852771</v>
       </c>
       <c r="J5" t="n">
-        <v>65082.64625607467</v>
+        <v>65082.64625607469</v>
       </c>
       <c r="K5" t="n">
-        <v>65082.64625607468</v>
+        <v>65082.64625607469</v>
       </c>
       <c r="L5" t="n">
-        <v>65082.64625607467</v>
+        <v>65082.64625607469</v>
       </c>
       <c r="M5" t="n">
-        <v>55600.50041746882</v>
+        <v>55600.50041746884</v>
       </c>
       <c r="N5" t="n">
-        <v>55600.50041746883</v>
+        <v>55600.50041746884</v>
       </c>
       <c r="O5" t="n">
-        <v>55600.50041746883</v>
+        <v>55600.50041746884</v>
       </c>
       <c r="P5" t="n">
         <v>55600.50041746884</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295671.4271446219</v>
+        <v>-295675.7957170891</v>
       </c>
       <c r="C6" t="n">
-        <v>-295671.427144622</v>
+        <v>-295675.7957170891</v>
       </c>
       <c r="D6" t="n">
-        <v>-295671.4271446219</v>
+        <v>-295675.7957170891</v>
       </c>
       <c r="E6" t="n">
-        <v>-557393.8061375282</v>
+        <v>-557639.6492934645</v>
       </c>
       <c r="F6" t="n">
-        <v>-200492.5497629172</v>
+        <v>-200738.3929188533</v>
       </c>
       <c r="G6" t="n">
         <v>-316687.6380388965</v>
       </c>
       <c r="H6" t="n">
+        <v>-244451.2568798022</v>
+      </c>
+      <c r="I6" t="n">
         <v>-244451.2568798023</v>
       </c>
-      <c r="I6" t="n">
-        <v>-244451.2568798024</v>
-      </c>
       <c r="J6" t="n">
-        <v>-370063.5539796374</v>
+        <v>-370063.5539796376</v>
       </c>
       <c r="K6" t="n">
-        <v>-249751.1111330125</v>
+        <v>-249751.1111330126</v>
       </c>
       <c r="L6" t="n">
-        <v>-321987.4922921065</v>
+        <v>-321987.4922921068</v>
       </c>
       <c r="M6" t="n">
-        <v>-344577.7322445037</v>
+        <v>-344577.7322445036</v>
       </c>
       <c r="N6" t="n">
+        <v>-241522.678495865</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-250383.4581466285</v>
+      </c>
+      <c r="P6" t="n">
         <v>-241522.6784958648</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-250383.4581466284</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-241522.6784958651</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G2" t="n">
         <v>219.5135474428162</v>
@@ -26713,7 +26713,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="L2" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="M2" t="n">
         <v>166.0499518471044</v>
@@ -26722,7 +26722,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="O2" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="P2" t="n">
         <v>166.0499518471044</v>
@@ -26756,28 +26756,28 @@
         <v>147.8469626879125</v>
       </c>
       <c r="I3" t="n">
+        <v>147.8469626879126</v>
+      </c>
+      <c r="J3" t="n">
+        <v>147.8469626879126</v>
+      </c>
+      <c r="K3" t="n">
         <v>147.8469626879125</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>147.8469626879125</v>
       </c>
-      <c r="K3" t="n">
-        <v>147.8469626879126</v>
-      </c>
-      <c r="L3" t="n">
-        <v>147.8469626879126</v>
-      </c>
       <c r="M3" t="n">
-        <v>147.8469626879126</v>
+        <v>147.8469626879125</v>
       </c>
       <c r="N3" t="n">
-        <v>147.8469626879126</v>
+        <v>147.8469626879125</v>
       </c>
       <c r="O3" t="n">
-        <v>147.8469626879126</v>
+        <v>147.8469626879125</v>
       </c>
       <c r="P3" t="n">
-        <v>147.8469626879126</v>
+        <v>147.8469626879125</v>
       </c>
     </row>
     <row r="4">
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="F4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="G4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="H4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="I4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="J4" t="n">
-        <v>877.2596374066325</v>
+        <v>877.2596374066327</v>
       </c>
       <c r="K4" t="n">
-        <v>877.2596374066326</v>
+        <v>877.2596374066327</v>
       </c>
       <c r="L4" t="n">
-        <v>877.2596374066326</v>
+        <v>877.2596374066327</v>
       </c>
       <c r="M4" t="n">
-        <v>631.8714346881269</v>
+        <v>631.871434688127</v>
       </c>
       <c r="N4" t="n">
-        <v>631.8714346881269</v>
+        <v>631.871434688127</v>
       </c>
       <c r="O4" t="n">
         <v>631.871434688127</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>90.29547644886773</v>
+        <v>90.2954764488677</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.2954764488676</v>
+        <v>90.29547644886773</v>
       </c>
       <c r="M2" t="n">
-        <v>64.6785008347822</v>
+        <v>64.6785008347821</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.07597456345447</v>
+        <v>11.07597456345455</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>425.966822078325</v>
+        <v>425.9668220783251</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>205.9046126098017</v>
+        <v>205.9046126098018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>90.29547644886773</v>
+        <v>90.2954764488677</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="H11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="I11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>52.39645933782041</v>
       </c>
       <c r="S11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="V11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="W11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y11" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="12">
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.74941852193287</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,16 +28217,16 @@
         <v>39.441882783833</v>
       </c>
       <c r="S12" t="n">
-        <v>48.60817180563288</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>129.2180709939484</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>129.2180709939484</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>87.72592073002707</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="13">
@@ -28245,31 +28245,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="H13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="I13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="J13" t="n">
-        <v>97.94315950317402</v>
+        <v>40.60739031761005</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28281,40 +28281,40 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>57.33576918556375</v>
       </c>
       <c r="O13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="R13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="S13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="V13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="W13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="H14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="I14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>52.39645933782041</v>
       </c>
       <c r="S14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="V14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="W14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y14" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.2180709939484</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D15" t="n">
-        <v>88.05005458946587</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.1232045289026</v>
       </c>
       <c r="H15" t="n">
-        <v>95.86716744632758</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.74941852193287</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,16 +28454,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T15" t="n">
-        <v>129.2180709939484</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.0445989849577586</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28482,37 +28482,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="C16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="D16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="E16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="F16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="G16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="I16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="J16" t="n">
-        <v>97.94315950317399</v>
+        <v>82.11608293620057</v>
       </c>
       <c r="K16" t="n">
-        <v>129.2180709939484</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28521,37 +28521,37 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>129.2180709939484</v>
+        <v>15.82707656697306</v>
       </c>
       <c r="R16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="S16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="T16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="U16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="V16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="W16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="X16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.2180709939484</v>
+        <v>129.2180709939485</v>
       </c>
     </row>
     <row r="17">
@@ -28661,7 +28661,7 @@
         <v>95.86716744632758</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>56.74941852193287</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>39.441882783833</v>
       </c>
       <c r="S18" t="n">
         <v>145.364587523205</v>
@@ -28697,10 +28697,10 @@
         <v>185.5164475248238</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>50.72679768256234</v>
       </c>
       <c r="V18" t="n">
-        <v>146.918098988328</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28734,16 +28734,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9639418688503</v>
       </c>
       <c r="H19" t="n">
         <v>155.4085199241127</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.7433458784037</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.60739031761005</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,19 +28764,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.82707656697306</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S19" t="n">
-        <v>206.9263923888292</v>
+        <v>103.4577348330272</v>
       </c>
       <c r="T19" t="n">
         <v>219.5135474428162</v>
       </c>
       <c r="U19" t="n">
-        <v>3.505396499272933</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>219.5135474428162</v>
@@ -28788,7 +28788,7 @@
         <v>219.5135474428162</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.5135474428162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>127.1232045289026</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I21" t="n">
         <v>56.74941852193287</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.13093399718149</v>
+        <v>39.441882783833</v>
       </c>
       <c r="S21" t="n">
         <v>145.364587523205</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>185.5164475248238</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>50.72679768256234</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28962,16 +28962,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9639418688503</v>
       </c>
       <c r="H22" t="n">
         <v>155.4085199241127</v>
@@ -29001,22 +29001,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.82707656697306</v>
       </c>
       <c r="R22" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S22" t="n">
-        <v>206.9263923888292</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5135474428162</v>
       </c>
       <c r="U22" t="n">
-        <v>146.4787595352276</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>219.5135474428162</v>
+        <v>87.63065826605416</v>
       </c>
       <c r="W22" t="n">
         <v>219.5135474428162</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>52.39645933782041</v>
+        <v>52.3964593378204</v>
       </c>
       <c r="S23" t="n">
         <v>171.8127151144388</v>
@@ -29132,10 +29132,10 @@
         <v>127.1232045289026</v>
       </c>
       <c r="H24" t="n">
-        <v>26.49634369698599</v>
+        <v>95.86716744632758</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.74941852193287</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>39.44188278383299</v>
       </c>
       <c r="S24" t="n">
         <v>145.364587523205</v>
@@ -29171,7 +29171,7 @@
         <v>185.5164475248238</v>
       </c>
       <c r="U24" t="n">
-        <v>216.2889227376699</v>
+        <v>50.72679768256234</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29196,19 +29196,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9639418688503</v>
       </c>
       <c r="H25" t="n">
         <v>155.4085199241127</v>
@@ -29217,7 +29217,7 @@
         <v>134.7433458784037</v>
       </c>
       <c r="J25" t="n">
-        <v>40.60739031761005</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.82707656697306</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>136.0388409905457</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>206.9263923888292</v>
+        <v>142.5216437763257</v>
       </c>
       <c r="T25" t="n">
         <v>219.5135474428162</v>
@@ -29262,7 +29262,7 @@
         <v>219.5135474428162</v>
       </c>
       <c r="Y25" t="n">
-        <v>147.6156443867105</v>
+        <v>219.5135474428162</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="J26" t="n">
-        <v>101.3714510123223</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>101.3714510123223</v>
@@ -29305,7 +29305,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="N26" t="n">
         <v>101.3714510123223</v>
@@ -29317,10 +29317,10 @@
         <v>101.3714510123223</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.34270386546763</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="R26" t="n">
-        <v>101.3714510123223</v>
+        <v>56.34270386546847</v>
       </c>
       <c r="S26" t="n">
         <v>101.3714510123223</v>
@@ -29536,16 +29536,16 @@
         <v>101.3714510123223</v>
       </c>
       <c r="K29" t="n">
-        <v>56.34270386546802</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="M29" t="n">
-        <v>101.3714510123223</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>101.3714510123223</v>
+        <v>56.34270386546893</v>
       </c>
       <c r="O29" t="n">
         <v>101.3714510123223</v>
@@ -29694,7 +29694,7 @@
         <v>101.3714510123223</v>
       </c>
       <c r="K31" t="n">
-        <v>101.3714510123223</v>
+        <v>101.371451012323</v>
       </c>
       <c r="L31" t="n">
         <v>101.3714510123223</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="C32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="D32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="E32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="F32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="G32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="H32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="I32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="J32" t="n">
-        <v>101.3714510123222</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L32" t="n">
-        <v>101.3714510123222</v>
+        <v>56.34270386546865</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="N32" t="n">
-        <v>56.34270386546956</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="O32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="P32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="R32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="S32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="T32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="U32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="V32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="W32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="X32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Y32" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="C34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="D34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="E34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="F34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="G34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="H34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="I34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="J34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="L34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="M34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="N34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="O34" t="n">
-        <v>101.371451012325</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="P34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="R34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="S34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="T34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="U34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="V34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="W34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="X34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
       <c r="Y34" t="n">
-        <v>101.3714510123222</v>
+        <v>101.3714510123223</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>52.3964593378204</v>
+        <v>52.39645933782041</v>
       </c>
       <c r="S35" t="n">
         <v>166.0499518471044</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>-4.689582056016661e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30186,25 +30186,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.82707656697305</v>
+        <v>15.82707656697306</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>136.0388409905457</v>
       </c>
       <c r="S37" t="n">
-        <v>123.8776891132479</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T37" t="n">
         <v>166.0499518471044</v>
       </c>
       <c r="U37" t="n">
-        <v>166.0499518471044</v>
+        <v>153.8887999698063</v>
       </c>
       <c r="V37" t="n">
         <v>166.0499518471044</v>
       </c>
       <c r="W37" t="n">
-        <v>166.0499518471044</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>166.0499518471044</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>52.3964593378204</v>
+        <v>52.39645933782041</v>
       </c>
       <c r="S38" t="n">
         <v>166.0499518471044</v>
@@ -30381,19 +30381,19 @@
         <v>166.0499518471044</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8887999698061</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>139.6460711793798</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H40" t="n">
         <v>155.4085199241127</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.82707656697305</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>136.0388409905457</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="E41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="F41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="G41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="I41" t="n">
         <v>148.1749764353492</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>52.3964593378204</v>
+        <v>52.39645933782041</v>
       </c>
       <c r="S41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="V41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="42">
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="C43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="H43" t="n">
         <v>155.4085199241127</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.82707656697305</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="U43" t="n">
-        <v>166.0499518471043</v>
+        <v>3.665924689675137</v>
       </c>
       <c r="V43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="W43" t="n">
-        <v>153.888799969807</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="X43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.0499518471043</v>
+        <v>166.0499518471044</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>52.3964593378204</v>
+        <v>52.39645933782041</v>
       </c>
       <c r="S44" t="n">
         <v>166.0499518471044</v>
@@ -30833,7 +30833,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30870,7 +30870,7 @@
         <v>166.0499518471044</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>155.4085199241127</v>
       </c>
       <c r="I46" t="n">
         <v>134.7433458784037</v>
@@ -30897,16 +30897,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.82707656697305</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>136.0388409905457</v>
       </c>
       <c r="S46" t="n">
+        <v>3.665924689675279</v>
+      </c>
+      <c r="T46" t="n">
         <v>166.0499518471044</v>
-      </c>
-      <c r="T46" t="n">
-        <v>143.2473680468146</v>
       </c>
       <c r="U46" t="n">
         <v>166.0499518471044</v>
@@ -32698,22 +32698,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5943596489966328</v>
+        <v>0.5943596489966331</v>
       </c>
       <c r="H23" t="n">
-        <v>6.086985755286768</v>
+        <v>6.08698575528677</v>
       </c>
       <c r="I23" t="n">
-        <v>22.91405036794271</v>
+        <v>22.91405036794272</v>
       </c>
       <c r="J23" t="n">
-        <v>50.44553225902801</v>
+        <v>50.44553225902803</v>
       </c>
       <c r="K23" t="n">
-        <v>75.6047762010555</v>
+        <v>75.60477620105553</v>
       </c>
       <c r="L23" t="n">
-        <v>93.79441030903622</v>
+        <v>93.79441030903625</v>
       </c>
       <c r="M23" t="n">
         <v>104.3643537168801</v>
@@ -32725,22 +32725,22 @@
         <v>100.1429143098815</v>
       </c>
       <c r="P23" t="n">
-        <v>85.46966047527712</v>
+        <v>85.46966047527715</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.18415554558518</v>
+        <v>64.18415554558521</v>
       </c>
       <c r="R23" t="n">
-        <v>37.33544430128477</v>
+        <v>37.33544430128479</v>
       </c>
       <c r="S23" t="n">
-        <v>13.54397050151078</v>
+        <v>13.54397050151079</v>
       </c>
       <c r="T23" t="n">
-        <v>2.601809363482761</v>
+        <v>2.601809363482763</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04754877191973062</v>
+        <v>0.04754877191973064</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3180104480456987</v>
+        <v>0.3180104480456988</v>
       </c>
       <c r="H24" t="n">
-        <v>3.071311432441354</v>
+        <v>3.071311432441355</v>
       </c>
       <c r="I24" t="n">
-        <v>10.94904393490673</v>
+        <v>10.94904393490674</v>
       </c>
       <c r="J24" t="n">
-        <v>30.04501342698419</v>
+        <v>30.04501342698421</v>
       </c>
       <c r="K24" t="n">
-        <v>51.35171344604601</v>
+        <v>51.35171344604602</v>
       </c>
       <c r="L24" t="n">
-        <v>69.04871592325577</v>
+        <v>69.04871592325578</v>
       </c>
       <c r="M24" t="n">
-        <v>80.57659466491232</v>
+        <v>80.57659466491235</v>
       </c>
       <c r="N24" t="n">
-        <v>82.70921736255214</v>
+        <v>82.70921736255217</v>
       </c>
       <c r="O24" t="n">
-        <v>75.66277532953954</v>
+        <v>75.66277532953957</v>
       </c>
       <c r="P24" t="n">
-        <v>60.72604775005978</v>
+        <v>60.72604775005981</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.59375473650007</v>
+        <v>40.59375473650008</v>
       </c>
       <c r="R24" t="n">
-        <v>19.74454343217067</v>
+        <v>19.74454343217068</v>
       </c>
       <c r="S24" t="n">
-        <v>5.906904594182162</v>
+        <v>5.906904594182165</v>
       </c>
       <c r="T24" t="n">
         <v>1.281805270850864</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0209217400030065</v>
+        <v>0.02092174000300651</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2666092769782029</v>
+        <v>0.266609276978203</v>
       </c>
       <c r="H25" t="n">
-        <v>2.370398844406206</v>
+        <v>2.370398844406207</v>
       </c>
       <c r="I25" t="n">
-        <v>8.017668074944504</v>
+        <v>8.017668074944508</v>
       </c>
       <c r="J25" t="n">
         <v>18.84927588235895</v>
       </c>
       <c r="K25" t="n">
-        <v>30.97515054346757</v>
+        <v>30.97515054346758</v>
       </c>
       <c r="L25" t="n">
-        <v>39.63752832455938</v>
+        <v>39.63752832455939</v>
       </c>
       <c r="M25" t="n">
-        <v>41.7922160266832</v>
+        <v>41.79221602668322</v>
       </c>
       <c r="N25" t="n">
-        <v>40.79849053976448</v>
+        <v>40.79849053976449</v>
       </c>
       <c r="O25" t="n">
-        <v>37.68400944051909</v>
+        <v>37.68400944051911</v>
       </c>
       <c r="P25" t="n">
-        <v>32.24518019016373</v>
+        <v>32.24518019016374</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.32489136587479</v>
+        <v>22.3248913658748</v>
       </c>
       <c r="R25" t="n">
-        <v>11.98772258121992</v>
+        <v>11.98772258121993</v>
       </c>
       <c r="S25" t="n">
-        <v>4.646272581520135</v>
+        <v>4.646272581520137</v>
       </c>
       <c r="T25" t="n">
         <v>1.139148728906867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01454232419881108</v>
+        <v>0.01454232419881109</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,22 +32935,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5943596489966328</v>
+        <v>0.5943596489966331</v>
       </c>
       <c r="H26" t="n">
-        <v>6.086985755286768</v>
+        <v>6.08698575528677</v>
       </c>
       <c r="I26" t="n">
-        <v>22.91405036794271</v>
+        <v>22.91405036794272</v>
       </c>
       <c r="J26" t="n">
-        <v>50.44553225902801</v>
+        <v>50.44553225902803</v>
       </c>
       <c r="K26" t="n">
-        <v>75.6047762010555</v>
+        <v>75.60477620105553</v>
       </c>
       <c r="L26" t="n">
-        <v>93.79441030903622</v>
+        <v>93.79441030903625</v>
       </c>
       <c r="M26" t="n">
         <v>104.3643537168801</v>
@@ -32962,22 +32962,22 @@
         <v>100.1429143098815</v>
       </c>
       <c r="P26" t="n">
-        <v>85.46966047527712</v>
+        <v>85.46966047527715</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.18415554558518</v>
+        <v>64.18415554558521</v>
       </c>
       <c r="R26" t="n">
-        <v>37.33544430128477</v>
+        <v>37.33544430128479</v>
       </c>
       <c r="S26" t="n">
-        <v>13.54397050151078</v>
+        <v>13.54397050151079</v>
       </c>
       <c r="T26" t="n">
-        <v>2.601809363482761</v>
+        <v>2.601809363482763</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04754877191973062</v>
+        <v>0.04754877191973064</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3180104480456987</v>
+        <v>0.3180104480456988</v>
       </c>
       <c r="H27" t="n">
-        <v>3.071311432441354</v>
+        <v>3.071311432441355</v>
       </c>
       <c r="I27" t="n">
-        <v>10.94904393490673</v>
+        <v>10.94904393490674</v>
       </c>
       <c r="J27" t="n">
-        <v>30.04501342698419</v>
+        <v>30.04501342698421</v>
       </c>
       <c r="K27" t="n">
-        <v>51.35171344604601</v>
+        <v>51.35171344604602</v>
       </c>
       <c r="L27" t="n">
-        <v>69.04871592325577</v>
+        <v>69.04871592325578</v>
       </c>
       <c r="M27" t="n">
-        <v>80.57659466491232</v>
+        <v>80.57659466491235</v>
       </c>
       <c r="N27" t="n">
-        <v>82.70921736255214</v>
+        <v>82.70921736255217</v>
       </c>
       <c r="O27" t="n">
-        <v>75.66277532953954</v>
+        <v>75.66277532953957</v>
       </c>
       <c r="P27" t="n">
-        <v>60.72604775005978</v>
+        <v>60.72604775005981</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.59375473650007</v>
+        <v>40.59375473650008</v>
       </c>
       <c r="R27" t="n">
-        <v>19.74454343217067</v>
+        <v>19.74454343217068</v>
       </c>
       <c r="S27" t="n">
-        <v>5.906904594182162</v>
+        <v>5.906904594182165</v>
       </c>
       <c r="T27" t="n">
         <v>1.281805270850864</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0209217400030065</v>
+        <v>0.02092174000300651</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2666092769782029</v>
+        <v>0.266609276978203</v>
       </c>
       <c r="H28" t="n">
-        <v>2.370398844406206</v>
+        <v>2.370398844406207</v>
       </c>
       <c r="I28" t="n">
-        <v>8.017668074944504</v>
+        <v>8.017668074944508</v>
       </c>
       <c r="J28" t="n">
         <v>18.84927588235895</v>
       </c>
       <c r="K28" t="n">
-        <v>30.97515054346757</v>
+        <v>30.97515054346758</v>
       </c>
       <c r="L28" t="n">
-        <v>39.63752832455938</v>
+        <v>39.63752832455939</v>
       </c>
       <c r="M28" t="n">
-        <v>41.7922160266832</v>
+        <v>41.79221602668322</v>
       </c>
       <c r="N28" t="n">
-        <v>40.79849053976448</v>
+        <v>40.79849053976449</v>
       </c>
       <c r="O28" t="n">
-        <v>37.68400944051909</v>
+        <v>37.68400944051911</v>
       </c>
       <c r="P28" t="n">
-        <v>32.24518019016373</v>
+        <v>32.24518019016374</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.32489136587479</v>
+        <v>22.3248913658748</v>
       </c>
       <c r="R28" t="n">
-        <v>11.98772258121992</v>
+        <v>11.98772258121993</v>
       </c>
       <c r="S28" t="n">
-        <v>4.646272581520135</v>
+        <v>4.646272581520137</v>
       </c>
       <c r="T28" t="n">
         <v>1.139148728906867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01454232419881108</v>
+        <v>0.01454232419881109</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,22 +33172,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5943596489966331</v>
+        <v>0.5943596489966328</v>
       </c>
       <c r="H29" t="n">
-        <v>6.08698575528677</v>
+        <v>6.086985755286768</v>
       </c>
       <c r="I29" t="n">
-        <v>22.91405036794272</v>
+        <v>22.91405036794271</v>
       </c>
       <c r="J29" t="n">
-        <v>50.44553225902803</v>
+        <v>50.44553225902801</v>
       </c>
       <c r="K29" t="n">
-        <v>75.60477620105553</v>
+        <v>75.6047762010555</v>
       </c>
       <c r="L29" t="n">
-        <v>93.79441030903625</v>
+        <v>93.79441030903622</v>
       </c>
       <c r="M29" t="n">
         <v>104.3643537168801</v>
@@ -33199,22 +33199,22 @@
         <v>100.1429143098815</v>
       </c>
       <c r="P29" t="n">
-        <v>85.46966047527715</v>
+        <v>85.46966047527712</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.18415554558521</v>
+        <v>64.18415554558518</v>
       </c>
       <c r="R29" t="n">
-        <v>37.33544430128479</v>
+        <v>37.33544430128477</v>
       </c>
       <c r="S29" t="n">
-        <v>13.54397050151079</v>
+        <v>13.54397050151078</v>
       </c>
       <c r="T29" t="n">
-        <v>2.601809363482763</v>
+        <v>2.601809363482761</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04754877191973064</v>
+        <v>0.04754877191973062</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3180104480456988</v>
+        <v>0.3180104480456987</v>
       </c>
       <c r="H30" t="n">
-        <v>3.071311432441355</v>
+        <v>3.071311432441354</v>
       </c>
       <c r="I30" t="n">
-        <v>10.94904393490674</v>
+        <v>10.94904393490673</v>
       </c>
       <c r="J30" t="n">
-        <v>30.04501342698421</v>
+        <v>30.04501342698419</v>
       </c>
       <c r="K30" t="n">
-        <v>51.35171344604602</v>
+        <v>51.35171344604601</v>
       </c>
       <c r="L30" t="n">
-        <v>69.04871592325578</v>
+        <v>69.04871592325577</v>
       </c>
       <c r="M30" t="n">
-        <v>80.57659466491235</v>
+        <v>80.57659466491232</v>
       </c>
       <c r="N30" t="n">
-        <v>82.70921736255217</v>
+        <v>82.70921736255214</v>
       </c>
       <c r="O30" t="n">
-        <v>75.66277532953957</v>
+        <v>75.66277532953954</v>
       </c>
       <c r="P30" t="n">
-        <v>60.72604775005981</v>
+        <v>60.72604775005978</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.59375473650008</v>
+        <v>40.59375473650007</v>
       </c>
       <c r="R30" t="n">
-        <v>19.74454343217068</v>
+        <v>19.74454343217067</v>
       </c>
       <c r="S30" t="n">
-        <v>5.906904594182165</v>
+        <v>5.906904594182162</v>
       </c>
       <c r="T30" t="n">
         <v>1.281805270850864</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02092174000300651</v>
+        <v>0.0209217400030065</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.266609276978203</v>
+        <v>0.2666092769782029</v>
       </c>
       <c r="H31" t="n">
-        <v>2.370398844406207</v>
+        <v>2.370398844406206</v>
       </c>
       <c r="I31" t="n">
-        <v>8.017668074944508</v>
+        <v>8.017668074944504</v>
       </c>
       <c r="J31" t="n">
         <v>18.84927588235895</v>
       </c>
       <c r="K31" t="n">
-        <v>30.97515054346758</v>
+        <v>30.97515054346757</v>
       </c>
       <c r="L31" t="n">
-        <v>39.63752832455939</v>
+        <v>39.63752832455938</v>
       </c>
       <c r="M31" t="n">
-        <v>41.79221602668322</v>
+        <v>41.7922160266832</v>
       </c>
       <c r="N31" t="n">
-        <v>40.79849053976449</v>
+        <v>40.79849053976448</v>
       </c>
       <c r="O31" t="n">
-        <v>37.68400944051911</v>
+        <v>37.68400944051909</v>
       </c>
       <c r="P31" t="n">
-        <v>32.24518019016374</v>
+        <v>32.24518019016373</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.3248913658748</v>
+        <v>22.32489136587479</v>
       </c>
       <c r="R31" t="n">
-        <v>11.98772258121993</v>
+        <v>11.98772258121992</v>
       </c>
       <c r="S31" t="n">
-        <v>4.646272581520137</v>
+        <v>4.646272581520135</v>
       </c>
       <c r="T31" t="n">
         <v>1.139148728906867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01454232419881109</v>
+        <v>0.01454232419881108</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,22 +33409,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5943596489966331</v>
+        <v>0.5943596489966328</v>
       </c>
       <c r="H32" t="n">
-        <v>6.08698575528677</v>
+        <v>6.086985755286768</v>
       </c>
       <c r="I32" t="n">
-        <v>22.91405036794272</v>
+        <v>22.91405036794271</v>
       </c>
       <c r="J32" t="n">
-        <v>50.44553225902803</v>
+        <v>50.44553225902801</v>
       </c>
       <c r="K32" t="n">
-        <v>75.60477620105553</v>
+        <v>75.6047762010555</v>
       </c>
       <c r="L32" t="n">
-        <v>93.79441030903625</v>
+        <v>93.79441030903622</v>
       </c>
       <c r="M32" t="n">
         <v>104.3643537168801</v>
@@ -33436,22 +33436,22 @@
         <v>100.1429143098815</v>
       </c>
       <c r="P32" t="n">
-        <v>85.46966047527715</v>
+        <v>85.46966047527712</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.18415554558521</v>
+        <v>64.18415554558518</v>
       </c>
       <c r="R32" t="n">
-        <v>37.33544430128479</v>
+        <v>37.33544430128477</v>
       </c>
       <c r="S32" t="n">
-        <v>13.54397050151079</v>
+        <v>13.54397050151078</v>
       </c>
       <c r="T32" t="n">
-        <v>2.601809363482763</v>
+        <v>2.601809363482761</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04754877191973064</v>
+        <v>0.04754877191973062</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3180104480456988</v>
+        <v>0.3180104480456987</v>
       </c>
       <c r="H33" t="n">
-        <v>3.071311432441355</v>
+        <v>3.071311432441354</v>
       </c>
       <c r="I33" t="n">
-        <v>10.94904393490674</v>
+        <v>10.94904393490673</v>
       </c>
       <c r="J33" t="n">
-        <v>30.04501342698421</v>
+        <v>30.04501342698419</v>
       </c>
       <c r="K33" t="n">
-        <v>51.35171344604602</v>
+        <v>51.35171344604601</v>
       </c>
       <c r="L33" t="n">
-        <v>69.04871592325578</v>
+        <v>69.04871592325577</v>
       </c>
       <c r="M33" t="n">
-        <v>80.57659466491235</v>
+        <v>80.57659466491232</v>
       </c>
       <c r="N33" t="n">
-        <v>82.70921736255217</v>
+        <v>82.70921736255214</v>
       </c>
       <c r="O33" t="n">
-        <v>75.66277532953957</v>
+        <v>75.66277532953954</v>
       </c>
       <c r="P33" t="n">
-        <v>60.72604775005981</v>
+        <v>60.72604775005978</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.59375473650008</v>
+        <v>40.59375473650007</v>
       </c>
       <c r="R33" t="n">
-        <v>19.74454343217068</v>
+        <v>19.74454343217067</v>
       </c>
       <c r="S33" t="n">
-        <v>5.906904594182165</v>
+        <v>5.906904594182162</v>
       </c>
       <c r="T33" t="n">
         <v>1.281805270850864</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02092174000300651</v>
+        <v>0.0209217400030065</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.266609276978203</v>
+        <v>0.2666092769782029</v>
       </c>
       <c r="H34" t="n">
-        <v>2.370398844406207</v>
+        <v>2.370398844406206</v>
       </c>
       <c r="I34" t="n">
-        <v>8.017668074944508</v>
+        <v>8.017668074944504</v>
       </c>
       <c r="J34" t="n">
         <v>18.84927588235895</v>
       </c>
       <c r="K34" t="n">
-        <v>30.97515054346758</v>
+        <v>30.97515054346757</v>
       </c>
       <c r="L34" t="n">
-        <v>39.63752832455939</v>
+        <v>39.63752832455938</v>
       </c>
       <c r="M34" t="n">
-        <v>41.79221602668322</v>
+        <v>41.7922160266832</v>
       </c>
       <c r="N34" t="n">
-        <v>40.79849053976449</v>
+        <v>40.79849053976448</v>
       </c>
       <c r="O34" t="n">
-        <v>37.68400944051911</v>
+        <v>37.68400944051909</v>
       </c>
       <c r="P34" t="n">
-        <v>32.24518019016374</v>
+        <v>32.24518019016373</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.3248913658748</v>
+        <v>22.32489136587479</v>
       </c>
       <c r="R34" t="n">
-        <v>11.98772258121993</v>
+        <v>11.98772258121992</v>
       </c>
       <c r="S34" t="n">
-        <v>4.646272581520137</v>
+        <v>4.646272581520135</v>
       </c>
       <c r="T34" t="n">
         <v>1.139148728906867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01454232419881109</v>
+        <v>0.01454232419881108</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,22 +33646,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5943596489966331</v>
+        <v>0.5943596489966328</v>
       </c>
       <c r="H35" t="n">
-        <v>6.08698575528677</v>
+        <v>6.086985755286768</v>
       </c>
       <c r="I35" t="n">
-        <v>22.91405036794272</v>
+        <v>22.91405036794271</v>
       </c>
       <c r="J35" t="n">
-        <v>50.44553225902803</v>
+        <v>50.44553225902801</v>
       </c>
       <c r="K35" t="n">
-        <v>75.60477620105553</v>
+        <v>75.6047762010555</v>
       </c>
       <c r="L35" t="n">
-        <v>93.79441030903625</v>
+        <v>93.79441030903622</v>
       </c>
       <c r="M35" t="n">
         <v>104.3643537168801</v>
@@ -33673,22 +33673,22 @@
         <v>100.1429143098815</v>
       </c>
       <c r="P35" t="n">
-        <v>85.46966047527715</v>
+        <v>85.46966047527712</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.18415554558521</v>
+        <v>64.18415554558518</v>
       </c>
       <c r="R35" t="n">
-        <v>37.33544430128479</v>
+        <v>37.33544430128477</v>
       </c>
       <c r="S35" t="n">
-        <v>13.54397050151079</v>
+        <v>13.54397050151078</v>
       </c>
       <c r="T35" t="n">
-        <v>2.601809363482763</v>
+        <v>2.601809363482761</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04754877191973064</v>
+        <v>0.04754877191973062</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3180104480456988</v>
+        <v>0.3180104480456987</v>
       </c>
       <c r="H36" t="n">
-        <v>3.071311432441355</v>
+        <v>3.071311432441354</v>
       </c>
       <c r="I36" t="n">
-        <v>10.94904393490674</v>
+        <v>10.94904393490673</v>
       </c>
       <c r="J36" t="n">
-        <v>30.04501342698421</v>
+        <v>30.04501342698419</v>
       </c>
       <c r="K36" t="n">
-        <v>51.35171344604602</v>
+        <v>51.35171344604601</v>
       </c>
       <c r="L36" t="n">
-        <v>69.04871592325578</v>
+        <v>69.04871592325577</v>
       </c>
       <c r="M36" t="n">
-        <v>80.57659466491235</v>
+        <v>80.57659466491232</v>
       </c>
       <c r="N36" t="n">
-        <v>82.70921736255217</v>
+        <v>82.70921736255214</v>
       </c>
       <c r="O36" t="n">
-        <v>75.66277532953957</v>
+        <v>75.66277532953954</v>
       </c>
       <c r="P36" t="n">
-        <v>60.72604775005981</v>
+        <v>60.72604775005978</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.59375473650008</v>
+        <v>40.59375473650007</v>
       </c>
       <c r="R36" t="n">
-        <v>19.74454343217068</v>
+        <v>19.74454343217067</v>
       </c>
       <c r="S36" t="n">
-        <v>5.906904594182165</v>
+        <v>5.906904594182162</v>
       </c>
       <c r="T36" t="n">
         <v>1.281805270850864</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02092174000300651</v>
+        <v>0.0209217400030065</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.266609276978203</v>
+        <v>0.2666092769782029</v>
       </c>
       <c r="H37" t="n">
-        <v>2.370398844406207</v>
+        <v>2.370398844406206</v>
       </c>
       <c r="I37" t="n">
-        <v>8.017668074944508</v>
+        <v>8.017668074944504</v>
       </c>
       <c r="J37" t="n">
         <v>18.84927588235895</v>
       </c>
       <c r="K37" t="n">
-        <v>30.97515054346758</v>
+        <v>30.97515054346757</v>
       </c>
       <c r="L37" t="n">
-        <v>39.63752832455939</v>
+        <v>39.63752832455938</v>
       </c>
       <c r="M37" t="n">
-        <v>41.79221602668322</v>
+        <v>41.7922160266832</v>
       </c>
       <c r="N37" t="n">
-        <v>40.79849053976449</v>
+        <v>40.79849053976448</v>
       </c>
       <c r="O37" t="n">
-        <v>37.68400944051911</v>
+        <v>37.68400944051909</v>
       </c>
       <c r="P37" t="n">
-        <v>32.24518019016374</v>
+        <v>32.24518019016373</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.3248913658748</v>
+        <v>22.32489136587479</v>
       </c>
       <c r="R37" t="n">
-        <v>11.98772258121993</v>
+        <v>11.98772258121992</v>
       </c>
       <c r="S37" t="n">
-        <v>4.646272581520137</v>
+        <v>4.646272581520135</v>
       </c>
       <c r="T37" t="n">
         <v>1.139148728906867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01454232419881109</v>
+        <v>0.01454232419881108</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,22 +33883,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5943596489966331</v>
+        <v>0.5943596489966328</v>
       </c>
       <c r="H38" t="n">
-        <v>6.08698575528677</v>
+        <v>6.086985755286768</v>
       </c>
       <c r="I38" t="n">
-        <v>22.91405036794272</v>
+        <v>22.91405036794271</v>
       </c>
       <c r="J38" t="n">
-        <v>50.44553225902803</v>
+        <v>50.44553225902801</v>
       </c>
       <c r="K38" t="n">
-        <v>75.60477620105553</v>
+        <v>75.6047762010555</v>
       </c>
       <c r="L38" t="n">
-        <v>93.79441030903625</v>
+        <v>93.79441030903622</v>
       </c>
       <c r="M38" t="n">
         <v>104.3643537168801</v>
@@ -33910,22 +33910,22 @@
         <v>100.1429143098815</v>
       </c>
       <c r="P38" t="n">
-        <v>85.46966047527715</v>
+        <v>85.46966047527712</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.18415554558521</v>
+        <v>64.18415554558518</v>
       </c>
       <c r="R38" t="n">
-        <v>37.33544430128479</v>
+        <v>37.33544430128477</v>
       </c>
       <c r="S38" t="n">
-        <v>13.54397050151079</v>
+        <v>13.54397050151078</v>
       </c>
       <c r="T38" t="n">
-        <v>2.601809363482763</v>
+        <v>2.601809363482761</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04754877191973064</v>
+        <v>0.04754877191973062</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3180104480456988</v>
+        <v>0.3180104480456987</v>
       </c>
       <c r="H39" t="n">
-        <v>3.071311432441355</v>
+        <v>3.071311432441354</v>
       </c>
       <c r="I39" t="n">
-        <v>10.94904393490674</v>
+        <v>10.94904393490673</v>
       </c>
       <c r="J39" t="n">
-        <v>30.04501342698421</v>
+        <v>30.04501342698419</v>
       </c>
       <c r="K39" t="n">
-        <v>51.35171344604602</v>
+        <v>51.35171344604601</v>
       </c>
       <c r="L39" t="n">
-        <v>69.04871592325578</v>
+        <v>69.04871592325577</v>
       </c>
       <c r="M39" t="n">
-        <v>80.57659466491235</v>
+        <v>80.57659466491232</v>
       </c>
       <c r="N39" t="n">
-        <v>82.70921736255217</v>
+        <v>82.70921736255214</v>
       </c>
       <c r="O39" t="n">
-        <v>75.66277532953957</v>
+        <v>75.66277532953954</v>
       </c>
       <c r="P39" t="n">
-        <v>60.72604775005981</v>
+        <v>60.72604775005978</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.59375473650008</v>
+        <v>40.59375473650007</v>
       </c>
       <c r="R39" t="n">
-        <v>19.74454343217068</v>
+        <v>19.74454343217067</v>
       </c>
       <c r="S39" t="n">
-        <v>5.906904594182165</v>
+        <v>5.906904594182162</v>
       </c>
       <c r="T39" t="n">
         <v>1.281805270850864</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02092174000300651</v>
+        <v>0.0209217400030065</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.266609276978203</v>
+        <v>0.2666092769782029</v>
       </c>
       <c r="H40" t="n">
-        <v>2.370398844406207</v>
+        <v>2.370398844406206</v>
       </c>
       <c r="I40" t="n">
-        <v>8.017668074944508</v>
+        <v>8.017668074944504</v>
       </c>
       <c r="J40" t="n">
         <v>18.84927588235895</v>
       </c>
       <c r="K40" t="n">
-        <v>30.97515054346758</v>
+        <v>30.97515054346757</v>
       </c>
       <c r="L40" t="n">
-        <v>39.63752832455939</v>
+        <v>39.63752832455938</v>
       </c>
       <c r="M40" t="n">
-        <v>41.79221602668322</v>
+        <v>41.7922160266832</v>
       </c>
       <c r="N40" t="n">
-        <v>40.79849053976449</v>
+        <v>40.79849053976448</v>
       </c>
       <c r="O40" t="n">
-        <v>37.68400944051911</v>
+        <v>37.68400944051909</v>
       </c>
       <c r="P40" t="n">
-        <v>32.24518019016374</v>
+        <v>32.24518019016373</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.3248913658748</v>
+        <v>22.32489136587479</v>
       </c>
       <c r="R40" t="n">
-        <v>11.98772258121993</v>
+        <v>11.98772258121992</v>
       </c>
       <c r="S40" t="n">
-        <v>4.646272581520137</v>
+        <v>4.646272581520135</v>
       </c>
       <c r="T40" t="n">
         <v>1.139148728906867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01454232419881109</v>
+        <v>0.01454232419881108</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,22 +34120,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5943596489966331</v>
+        <v>0.5943596489966328</v>
       </c>
       <c r="H41" t="n">
-        <v>6.08698575528677</v>
+        <v>6.086985755286768</v>
       </c>
       <c r="I41" t="n">
-        <v>22.91405036794272</v>
+        <v>22.91405036794271</v>
       </c>
       <c r="J41" t="n">
-        <v>50.44553225902803</v>
+        <v>50.44553225902801</v>
       </c>
       <c r="K41" t="n">
-        <v>75.60477620105553</v>
+        <v>75.6047762010555</v>
       </c>
       <c r="L41" t="n">
-        <v>93.79441030903625</v>
+        <v>93.79441030903622</v>
       </c>
       <c r="M41" t="n">
         <v>104.3643537168801</v>
@@ -34147,22 +34147,22 @@
         <v>100.1429143098815</v>
       </c>
       <c r="P41" t="n">
-        <v>85.46966047527715</v>
+        <v>85.46966047527712</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.18415554558521</v>
+        <v>64.18415554558518</v>
       </c>
       <c r="R41" t="n">
-        <v>37.33544430128479</v>
+        <v>37.33544430128477</v>
       </c>
       <c r="S41" t="n">
-        <v>13.54397050151079</v>
+        <v>13.54397050151078</v>
       </c>
       <c r="T41" t="n">
-        <v>2.601809363482763</v>
+        <v>2.601809363482761</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04754877191973064</v>
+        <v>0.04754877191973062</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3180104480456988</v>
+        <v>0.3180104480456987</v>
       </c>
       <c r="H42" t="n">
-        <v>3.071311432441355</v>
+        <v>3.071311432441354</v>
       </c>
       <c r="I42" t="n">
-        <v>10.94904393490674</v>
+        <v>10.94904393490673</v>
       </c>
       <c r="J42" t="n">
-        <v>30.04501342698421</v>
+        <v>30.04501342698419</v>
       </c>
       <c r="K42" t="n">
-        <v>51.35171344604602</v>
+        <v>51.35171344604601</v>
       </c>
       <c r="L42" t="n">
-        <v>69.04871592325578</v>
+        <v>69.04871592325577</v>
       </c>
       <c r="M42" t="n">
-        <v>80.57659466491235</v>
+        <v>80.57659466491232</v>
       </c>
       <c r="N42" t="n">
-        <v>82.70921736255217</v>
+        <v>82.70921736255214</v>
       </c>
       <c r="O42" t="n">
-        <v>75.66277532953957</v>
+        <v>75.66277532953954</v>
       </c>
       <c r="P42" t="n">
-        <v>60.72604775005981</v>
+        <v>60.72604775005978</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.59375473650008</v>
+        <v>40.59375473650007</v>
       </c>
       <c r="R42" t="n">
-        <v>19.74454343217068</v>
+        <v>19.74454343217067</v>
       </c>
       <c r="S42" t="n">
-        <v>5.906904594182165</v>
+        <v>5.906904594182162</v>
       </c>
       <c r="T42" t="n">
         <v>1.281805270850864</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02092174000300651</v>
+        <v>0.0209217400030065</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.266609276978203</v>
+        <v>0.2666092769782029</v>
       </c>
       <c r="H43" t="n">
-        <v>2.370398844406207</v>
+        <v>2.370398844406206</v>
       </c>
       <c r="I43" t="n">
-        <v>8.017668074944508</v>
+        <v>8.017668074944504</v>
       </c>
       <c r="J43" t="n">
         <v>18.84927588235895</v>
       </c>
       <c r="K43" t="n">
-        <v>30.97515054346758</v>
+        <v>30.97515054346757</v>
       </c>
       <c r="L43" t="n">
-        <v>39.63752832455939</v>
+        <v>39.63752832455938</v>
       </c>
       <c r="M43" t="n">
-        <v>41.79221602668322</v>
+        <v>41.7922160266832</v>
       </c>
       <c r="N43" t="n">
-        <v>40.79849053976449</v>
+        <v>40.79849053976448</v>
       </c>
       <c r="O43" t="n">
-        <v>37.68400944051911</v>
+        <v>37.68400944051909</v>
       </c>
       <c r="P43" t="n">
-        <v>32.24518019016374</v>
+        <v>32.24518019016373</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.3248913658748</v>
+        <v>22.32489136587479</v>
       </c>
       <c r="R43" t="n">
-        <v>11.98772258121993</v>
+        <v>11.98772258121992</v>
       </c>
       <c r="S43" t="n">
-        <v>4.646272581520137</v>
+        <v>4.646272581520135</v>
       </c>
       <c r="T43" t="n">
         <v>1.139148728906867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01454232419881109</v>
+        <v>0.01454232419881108</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,22 +34357,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5943596489966331</v>
+        <v>0.5943596489966328</v>
       </c>
       <c r="H44" t="n">
-        <v>6.08698575528677</v>
+        <v>6.086985755286768</v>
       </c>
       <c r="I44" t="n">
-        <v>22.91405036794272</v>
+        <v>22.91405036794271</v>
       </c>
       <c r="J44" t="n">
-        <v>50.44553225902803</v>
+        <v>50.44553225902801</v>
       </c>
       <c r="K44" t="n">
-        <v>75.60477620105553</v>
+        <v>75.6047762010555</v>
       </c>
       <c r="L44" t="n">
-        <v>93.79441030903625</v>
+        <v>93.79441030903622</v>
       </c>
       <c r="M44" t="n">
         <v>104.3643537168801</v>
@@ -34384,22 +34384,22 @@
         <v>100.1429143098815</v>
       </c>
       <c r="P44" t="n">
-        <v>85.46966047527715</v>
+        <v>85.46966047527712</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.18415554558521</v>
+        <v>64.18415554558518</v>
       </c>
       <c r="R44" t="n">
-        <v>37.33544430128479</v>
+        <v>37.33544430128477</v>
       </c>
       <c r="S44" t="n">
-        <v>13.54397050151079</v>
+        <v>13.54397050151078</v>
       </c>
       <c r="T44" t="n">
-        <v>2.601809363482763</v>
+        <v>2.601809363482761</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04754877191973064</v>
+        <v>0.04754877191973062</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3180104480456988</v>
+        <v>0.3180104480456987</v>
       </c>
       <c r="H45" t="n">
-        <v>3.071311432441355</v>
+        <v>3.071311432441354</v>
       </c>
       <c r="I45" t="n">
-        <v>10.94904393490674</v>
+        <v>10.94904393490673</v>
       </c>
       <c r="J45" t="n">
-        <v>30.04501342698421</v>
+        <v>30.04501342698419</v>
       </c>
       <c r="K45" t="n">
-        <v>51.35171344604602</v>
+        <v>51.35171344604601</v>
       </c>
       <c r="L45" t="n">
-        <v>69.04871592325578</v>
+        <v>69.04871592325577</v>
       </c>
       <c r="M45" t="n">
-        <v>80.57659466491235</v>
+        <v>80.57659466491232</v>
       </c>
       <c r="N45" t="n">
-        <v>82.70921736255217</v>
+        <v>82.70921736255214</v>
       </c>
       <c r="O45" t="n">
-        <v>75.66277532953957</v>
+        <v>75.66277532953954</v>
       </c>
       <c r="P45" t="n">
-        <v>60.72604775005981</v>
+        <v>60.72604775005978</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.59375473650008</v>
+        <v>40.59375473650007</v>
       </c>
       <c r="R45" t="n">
-        <v>19.74454343217068</v>
+        <v>19.74454343217067</v>
       </c>
       <c r="S45" t="n">
-        <v>5.906904594182165</v>
+        <v>5.906904594182162</v>
       </c>
       <c r="T45" t="n">
         <v>1.281805270850864</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02092174000300651</v>
+        <v>0.0209217400030065</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.266609276978203</v>
+        <v>0.2666092769782029</v>
       </c>
       <c r="H46" t="n">
-        <v>2.370398844406207</v>
+        <v>2.370398844406206</v>
       </c>
       <c r="I46" t="n">
-        <v>8.017668074944508</v>
+        <v>8.017668074944504</v>
       </c>
       <c r="J46" t="n">
         <v>18.84927588235895</v>
       </c>
       <c r="K46" t="n">
-        <v>30.97515054346758</v>
+        <v>30.97515054346757</v>
       </c>
       <c r="L46" t="n">
-        <v>39.63752832455939</v>
+        <v>39.63752832455938</v>
       </c>
       <c r="M46" t="n">
-        <v>41.79221602668322</v>
+        <v>41.7922160266832</v>
       </c>
       <c r="N46" t="n">
-        <v>40.79849053976449</v>
+        <v>40.79849053976448</v>
       </c>
       <c r="O46" t="n">
-        <v>37.68400944051911</v>
+        <v>37.68400944051909</v>
       </c>
       <c r="P46" t="n">
-        <v>32.24518019016374</v>
+        <v>32.24518019016373</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.3248913658748</v>
+        <v>22.32489136587479</v>
       </c>
       <c r="R46" t="n">
-        <v>11.98772258121993</v>
+        <v>11.98772258121992</v>
       </c>
       <c r="S46" t="n">
-        <v>4.646272581520137</v>
+        <v>4.646272581520135</v>
       </c>
       <c r="T46" t="n">
         <v>1.139148728906867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01454232419881109</v>
+        <v>0.01454232419881108</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>123.1713345547913</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>318.1708085695229</v>
       </c>
       <c r="L11" t="n">
         <v>445.1937770615071</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="N11" t="n">
-        <v>334.8423009535043</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="O11" t="n">
-        <v>408.22835317133</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>315.9311720470481</v>
+        <v>120.9869918810067</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.570270380471</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,13 +35492,13 @@
         <v>283.1603523957315</v>
       </c>
       <c r="L12" t="n">
-        <v>395.7437744357177</v>
+        <v>438.5657312466049</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>451.2928153283074</v>
+        <v>408.4708585174202</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.33576918556396</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>64.91877452795586</v>
@@ -35577,10 +35577,10 @@
         <v>160.9775757515334</v>
       </c>
       <c r="N13" t="n">
-        <v>160.4170175595628</v>
+        <v>217.7527867451266</v>
       </c>
       <c r="O13" t="n">
-        <v>266.3603092179924</v>
+        <v>266.3603092179925</v>
       </c>
       <c r="P13" t="n">
         <v>95.84970920848474</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>318.1708085695229</v>
       </c>
       <c r="L14" t="n">
         <v>445.1937770615071</v>
       </c>
       <c r="M14" t="n">
-        <v>166.2910905604591</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="N14" t="n">
-        <v>451.2928153283074</v>
+        <v>164.0514540379843</v>
       </c>
       <c r="O14" t="n">
         <v>408.22835317133</v>
       </c>
       <c r="P14" t="n">
-        <v>315.9311720470481</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>438.5657312466049</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>157.1370805373242</v>
       </c>
       <c r="N15" t="n">
-        <v>408.4708585174202</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="P15" t="n">
         <v>365.8734409578348</v>
       </c>
       <c r="Q15" t="n">
-        <v>199.9590373482114</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.33576918556393</v>
+        <v>41.50869261859052</v>
       </c>
       <c r="K16" t="n">
-        <v>194.1368455219043</v>
+        <v>64.91877452795586</v>
       </c>
       <c r="L16" t="n">
-        <v>141.260840850074</v>
+        <v>270.4789118440225</v>
       </c>
       <c r="M16" t="n">
         <v>160.9775757515334</v>
@@ -35817,13 +35817,13 @@
         <v>160.4170175595628</v>
       </c>
       <c r="O16" t="n">
-        <v>137.142238224044</v>
+        <v>266.3603092179925</v>
       </c>
       <c r="P16" t="n">
         <v>95.84970920848474</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.3909944269754</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>123.1713345547913</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>318.1708085695229</v>
       </c>
       <c r="L17" t="n">
-        <v>445.1937770615071</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>16.67149238398125</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>293.3140590524434</v>
       </c>
       <c r="O17" t="n">
         <v>408.22835317133</v>
@@ -35902,7 +35902,7 @@
         <v>315.9311720470481</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.570270380471</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>90.90778770284899</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>283.1603523957315</v>
@@ -35969,13 +35969,13 @@
         <v>438.5657312466049</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>48.08583089196163</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="O18" t="n">
-        <v>408.4708585174202</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>365.8734409578348</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>123.1713345547913</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>318.1708085695229</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>445.1937770615071</v>
       </c>
       <c r="M20" t="n">
-        <v>424.8998455553112</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>408.22835317133</v>
       </c>
       <c r="P20" t="n">
-        <v>315.9311720470481</v>
+        <v>30.92944727919976</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.570270380471</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>90.90778770284899</v>
       </c>
       <c r="K21" t="n">
-        <v>283.1603523957315</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>395.7437744357177</v>
+        <v>438.5657312466049</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>154.9190212143715</v>
       </c>
       <c r="O21" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="P21" t="n">
-        <v>365.8734409578348</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>199.9590373482114</v>
@@ -36361,13 +36361,13 @@
         <v>318.1708085695229</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>10.57245411718111</v>
       </c>
       <c r="M23" t="n">
-        <v>10.57245411718105</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="N23" t="n">
-        <v>451.2928153283074</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>408.22835317133</v>
@@ -36376,7 +36376,7 @@
         <v>315.9311720470481</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.570270380471</v>
+        <v>159.5702703804711</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>283.1603523957315</v>
       </c>
       <c r="L24" t="n">
-        <v>395.7437744357177</v>
+        <v>395.7437744357176</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>451.2928153283074</v>
+        <v>451.2928153283075</v>
       </c>
       <c r="P24" t="n">
         <v>365.8734409578348</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>64.91877452795586</v>
+        <v>64.91877452795588</v>
       </c>
       <c r="L25" t="n">
         <v>141.260840850074</v>
@@ -36525,7 +36525,7 @@
         <v>160.9775757515334</v>
       </c>
       <c r="N25" t="n">
-        <v>160.4170175595628</v>
+        <v>160.4170175595629</v>
       </c>
       <c r="O25" t="n">
         <v>137.142238224044</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.5427855671136</v>
+        <v>123.1713345547913</v>
       </c>
       <c r="K26" t="n">
-        <v>419.5422595818452</v>
+        <v>419.5422595818453</v>
       </c>
       <c r="L26" t="n">
-        <v>546.5652280738295</v>
+        <v>546.5652280738294</v>
       </c>
       <c r="M26" t="n">
-        <v>501.5756327604033</v>
+        <v>602.9470837727256</v>
       </c>
       <c r="N26" t="n">
-        <v>589.5774166452634</v>
+        <v>589.5774166452633</v>
       </c>
       <c r="O26" t="n">
         <v>509.5998041836523</v>
@@ -36613,10 +36613,10 @@
         <v>417.3026230593704</v>
       </c>
       <c r="Q26" t="n">
-        <v>215.9129742459387</v>
+        <v>260.9417213927933</v>
       </c>
       <c r="R26" t="n">
-        <v>48.9749916745019</v>
+        <v>3.946244527648073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>438.5657312466049</v>
       </c>
       <c r="M27" t="n">
-        <v>52.52572540433779</v>
+        <v>570.5092749782724</v>
       </c>
       <c r="N27" t="n">
-        <v>599.1391629414634</v>
+        <v>552.9799551457054</v>
       </c>
       <c r="O27" t="n">
-        <v>471.8243417781768</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>365.8734409578348</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.76406069471226</v>
+        <v>60.76406069471224</v>
       </c>
       <c r="K28" t="n">
         <v>166.2902255402782</v>
@@ -36765,13 +36765,13 @@
         <v>261.7884685718851</v>
       </c>
       <c r="O28" t="n">
-        <v>238.5136892363664</v>
+        <v>238.5136892363663</v>
       </c>
       <c r="P28" t="n">
         <v>197.221160220807</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.54437444534925</v>
+        <v>85.54437444534923</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>224.5427855671136</v>
       </c>
       <c r="K29" t="n">
-        <v>374.513512434991</v>
+        <v>419.5422595818452</v>
       </c>
       <c r="L29" t="n">
-        <v>445.1937770615072</v>
+        <v>546.5652280738294</v>
       </c>
       <c r="M29" t="n">
-        <v>602.9470837727256</v>
+        <v>501.5756327604033</v>
       </c>
       <c r="N29" t="n">
-        <v>589.5774166452634</v>
+        <v>544.5486694984099</v>
       </c>
       <c r="O29" t="n">
-        <v>509.5998041836523</v>
+        <v>509.5998041836522</v>
       </c>
       <c r="P29" t="n">
-        <v>417.3026230593704</v>
+        <v>417.3026230593703</v>
       </c>
       <c r="Q29" t="n">
-        <v>260.9417213927934</v>
+        <v>260.9417213927933</v>
       </c>
       <c r="R29" t="n">
-        <v>48.97499167450191</v>
+        <v>48.97499167450187</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>90.90778770284899</v>
       </c>
       <c r="K30" t="n">
-        <v>56.04362787285731</v>
+        <v>283.1603523957315</v>
       </c>
       <c r="L30" t="n">
         <v>438.5657312466049</v>
@@ -36920,7 +36920,7 @@
         <v>570.5092749782724</v>
       </c>
       <c r="N30" t="n">
-        <v>599.1391629414634</v>
+        <v>81.15561336752867</v>
       </c>
       <c r="O30" t="n">
         <v>471.8243417781768</v>
@@ -36929,7 +36929,7 @@
         <v>365.8734409578348</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>199.9590373482114</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.76406069471226</v>
+        <v>60.76406069471223</v>
       </c>
       <c r="K31" t="n">
-        <v>166.2902255402782</v>
+        <v>166.2902255402789</v>
       </c>
       <c r="L31" t="n">
         <v>242.6322918623963</v>
       </c>
       <c r="M31" t="n">
-        <v>262.3490267638558</v>
+        <v>262.3490267638557</v>
       </c>
       <c r="N31" t="n">
-        <v>261.7884685718852</v>
+        <v>261.7884685718851</v>
       </c>
       <c r="O31" t="n">
-        <v>238.5136892363664</v>
+        <v>238.5136892363663</v>
       </c>
       <c r="P31" t="n">
-        <v>197.2211602208071</v>
+        <v>197.221160220807</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.54437444534926</v>
+        <v>85.54437444534922</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.5427855671135</v>
+        <v>123.1713345547913</v>
       </c>
       <c r="K32" t="n">
-        <v>419.5422595818451</v>
+        <v>419.5422595818452</v>
       </c>
       <c r="L32" t="n">
-        <v>546.5652280738294</v>
+        <v>501.5364809269758</v>
       </c>
       <c r="M32" t="n">
-        <v>501.5756327604033</v>
+        <v>602.9470837727256</v>
       </c>
       <c r="N32" t="n">
-        <v>544.5486694984106</v>
+        <v>589.5774166452634</v>
       </c>
       <c r="O32" t="n">
-        <v>509.5998041836522</v>
+        <v>509.5998041836523</v>
       </c>
       <c r="P32" t="n">
-        <v>417.3026230593703</v>
+        <v>417.3026230593704</v>
       </c>
       <c r="Q32" t="n">
-        <v>260.9417213927933</v>
+        <v>260.9417213927934</v>
       </c>
       <c r="R32" t="n">
-        <v>48.97499167450179</v>
+        <v>48.9749916745019</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.76406069471214</v>
+        <v>60.76406069471226</v>
       </c>
       <c r="K34" t="n">
-        <v>166.2902255402781</v>
+        <v>166.2902255402782</v>
       </c>
       <c r="L34" t="n">
-        <v>242.6322918623962</v>
+        <v>242.6322918623963</v>
       </c>
       <c r="M34" t="n">
-        <v>262.3490267638556</v>
+        <v>262.3490267638558</v>
       </c>
       <c r="N34" t="n">
-        <v>261.788468571885</v>
+        <v>261.7884685718851</v>
       </c>
       <c r="O34" t="n">
-        <v>238.5136892363691</v>
+        <v>238.5136892363664</v>
       </c>
       <c r="P34" t="n">
         <v>197.221160220807</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.54437444534913</v>
+        <v>85.54437444534925</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>123.1713345547913</v>
       </c>
       <c r="K35" t="n">
         <v>318.1708085695229</v>
       </c>
       <c r="L35" t="n">
-        <v>445.1937770615072</v>
+        <v>187.1020426587024</v>
       </c>
       <c r="M35" t="n">
         <v>501.5756327604033</v>
       </c>
       <c r="N35" t="n">
-        <v>488.2059656329411</v>
+        <v>488.205965632941</v>
       </c>
       <c r="O35" t="n">
         <v>408.22835317133</v>
@@ -37324,7 +37324,7 @@
         <v>315.9311720470481</v>
       </c>
       <c r="Q35" t="n">
-        <v>24.64987053245713</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>90.90778770284899</v>
       </c>
       <c r="K36" t="n">
-        <v>283.1603523957315</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>438.5657312466049</v>
@@ -37394,10 +37394,10 @@
         <v>570.5092749782724</v>
       </c>
       <c r="N36" t="n">
-        <v>81.15561336752867</v>
+        <v>599.1391629414634</v>
       </c>
       <c r="O36" t="n">
-        <v>471.8243417781768</v>
+        <v>237.0011445999741</v>
       </c>
       <c r="P36" t="n">
         <v>365.8734409578348</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>64.91877452795588</v>
+        <v>64.91877452795586</v>
       </c>
       <c r="L37" t="n">
         <v>141.260840850074</v>
@@ -37473,7 +37473,7 @@
         <v>160.9775757515334</v>
       </c>
       <c r="N37" t="n">
-        <v>160.4170175595629</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O37" t="n">
         <v>137.142238224044</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>123.1713345547913</v>
       </c>
       <c r="K38" t="n">
         <v>318.1708085695229</v>
       </c>
       <c r="L38" t="n">
-        <v>445.1937770615072</v>
+        <v>445.1937770615071</v>
       </c>
       <c r="M38" t="n">
-        <v>501.5756327604033</v>
+        <v>243.4838983575986</v>
       </c>
       <c r="N38" t="n">
-        <v>488.2059656329411</v>
+        <v>488.205965632941</v>
       </c>
       <c r="O38" t="n">
         <v>408.22835317133</v>
@@ -37561,7 +37561,7 @@
         <v>315.9311720470481</v>
       </c>
       <c r="Q38" t="n">
-        <v>24.64987053245713</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>438.5657312466049</v>
       </c>
       <c r="M39" t="n">
-        <v>570.5092749782724</v>
+        <v>52.52572540433825</v>
       </c>
       <c r="N39" t="n">
-        <v>81.15561336752867</v>
+        <v>599.1391629414634</v>
       </c>
       <c r="O39" t="n">
         <v>471.8243417781768</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>64.91877452795588</v>
+        <v>64.91877452795586</v>
       </c>
       <c r="L40" t="n">
         <v>141.260840850074</v>
@@ -37710,7 +37710,7 @@
         <v>160.9775757515334</v>
       </c>
       <c r="N40" t="n">
-        <v>160.4170175595629</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O40" t="n">
         <v>137.142238224044</v>
@@ -37783,13 +37783,13 @@
         <v>318.1708085695229</v>
       </c>
       <c r="L41" t="n">
-        <v>445.1937770615072</v>
+        <v>445.1937770615071</v>
       </c>
       <c r="M41" t="n">
-        <v>243.4838983575983</v>
+        <v>243.4838983575986</v>
       </c>
       <c r="N41" t="n">
-        <v>488.2059656329411</v>
+        <v>488.205965632941</v>
       </c>
       <c r="O41" t="n">
         <v>408.22835317133</v>
@@ -37798,7 +37798,7 @@
         <v>315.9311720470481</v>
       </c>
       <c r="Q41" t="n">
-        <v>159.5702703804711</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>90.90778770284899</v>
       </c>
       <c r="K42" t="n">
         <v>283.1603523957315</v>
@@ -37865,7 +37865,7 @@
         <v>438.5657312466049</v>
       </c>
       <c r="M42" t="n">
-        <v>143.4335131071872</v>
+        <v>418.3991663621725</v>
       </c>
       <c r="N42" t="n">
         <v>599.1391629414634</v>
@@ -37874,7 +37874,7 @@
         <v>471.8243417781768</v>
       </c>
       <c r="P42" t="n">
-        <v>365.8734409578348</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>199.9590373482114</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>64.91877452795588</v>
+        <v>64.91877452795586</v>
       </c>
       <c r="L43" t="n">
         <v>141.260840850074</v>
@@ -37947,7 +37947,7 @@
         <v>160.9775757515334</v>
       </c>
       <c r="N43" t="n">
-        <v>160.4170175595629</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O43" t="n">
         <v>137.142238224044</v>
@@ -38020,22 +38020,22 @@
         <v>318.1708085695229</v>
       </c>
       <c r="L44" t="n">
-        <v>445.1937770615072</v>
+        <v>445.1937770615071</v>
       </c>
       <c r="M44" t="n">
         <v>501.5756327604033</v>
       </c>
       <c r="N44" t="n">
-        <v>488.2059656329411</v>
+        <v>488.205965632941</v>
       </c>
       <c r="O44" t="n">
-        <v>408.22835317133</v>
+        <v>150.1366187685252</v>
       </c>
       <c r="P44" t="n">
-        <v>217.4097080247144</v>
+        <v>315.9311720470481</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>159.570270380471</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,13 +38102,13 @@
         <v>438.5657312466049</v>
       </c>
       <c r="M45" t="n">
-        <v>570.5092749782724</v>
+        <v>52.52572540433825</v>
       </c>
       <c r="N45" t="n">
-        <v>552.9799551457058</v>
+        <v>599.1391629414634</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>471.8243417781768</v>
       </c>
       <c r="P45" t="n">
         <v>365.8734409578348</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>64.91877452795588</v>
+        <v>64.91877452795586</v>
       </c>
       <c r="L46" t="n">
         <v>141.260840850074</v>
@@ -38184,7 +38184,7 @@
         <v>160.9775757515334</v>
       </c>
       <c r="N46" t="n">
-        <v>160.4170175595629</v>
+        <v>160.4170175595628</v>
       </c>
       <c r="O46" t="n">
         <v>137.142238224044</v>
